--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/50/Output_7_3.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/50/Output_7_3.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2489267.871351059</v>
+        <v>-2489967.281458249</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1868545.583905885</v>
+        <v>1868545.583905888</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>504792.0292736549</v>
+        <v>504792.0292736554</v>
       </c>
     </row>
     <row r="9">
@@ -656,16 +656,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>94.21910266041139</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>94.21910266041139</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>94.21910266041139</v>
       </c>
       <c r="E2" t="n">
-        <v>65.52275918131203</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>10.00967878293136</v>
@@ -704,7 +704,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>89.73190363910518</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -722,10 +722,10 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>94.21910266041178</v>
+        <v>61.0355601600051</v>
       </c>
       <c r="Y2" t="n">
-        <v>94.21910266041178</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -738,7 +738,7 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>94.21910266041178</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -783,28 +783,28 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>59.18642621600367</v>
       </c>
       <c r="S3" t="n">
-        <v>82.98818562329069</v>
+        <v>94.21910266041139</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>94.21910266041139</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>94.21910266041139</v>
       </c>
       <c r="V3" t="n">
-        <v>94.21910266041178</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>23.80175940728666</v>
       </c>
       <c r="X3" t="n">
         <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>94.21910266041178</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -862,28 +862,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>82.98818562329069</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>94.21910266041178</v>
+        <v>82.98818562329035</v>
       </c>
       <c r="U4" t="n">
-        <v>94.21910266041178</v>
+        <v>94.21910266041139</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>94.21910266041139</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>94.21910266041139</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>94.21910266041178</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -893,16 +893,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>94.21910266041139</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>94.21910266041178</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>94.21910266041139</v>
       </c>
       <c r="F5" t="n">
         <v>10.00967878293136</v>
@@ -911,10 +911,10 @@
         <v>11.94294668035388</v>
       </c>
       <c r="H5" t="n">
-        <v>61.03556016000547</v>
+        <v>61.03556016000506</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>94.21910266041139</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -956,10 +956,10 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>94.21910266041178</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>94.21910266041178</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -975,22 +975,22 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>94.21910266041178</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>82.98818562329072</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>23.80175940728669</v>
       </c>
       <c r="F6" t="n">
-        <v>94.21910266041178</v>
+        <v>94.21910266041139</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>94.21910266041139</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>94.21910266041139</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>59.18642621600367</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -1041,7 +1041,7 @@
         <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>94.21910266041178</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1051,13 +1051,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>82.98818562329072</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>94.21910266041178</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>94.21910266041178</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -1075,7 +1075,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>59.456666199969</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1096,22 +1096,22 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>38.15196793284785</v>
       </c>
       <c r="R7" t="n">
-        <v>94.21910266041178</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>94.21910266041139</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>94.21910266041139</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>79.59865415088487</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -1130,25 +1130,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>319.8762849093196</v>
       </c>
       <c r="C8" t="n">
-        <v>319.8762849093204</v>
+        <v>319.8762849093196</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>319.8762849093196</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>319.8762849093204</v>
+        <v>10.00967878293136</v>
       </c>
       <c r="G8" t="n">
         <v>11.94294668035388</v>
       </c>
       <c r="H8" t="n">
-        <v>319.8762849093204</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>171.0890268032919</v>
@@ -1190,7 +1190,7 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>98.71505826448346</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -1199,7 +1199,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>88.70537948155147</v>
       </c>
     </row>
     <row r="9">
@@ -1212,22 +1212,22 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>160.0866360314548</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>145.5577298436975</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>133.3468600696244</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>127.4412149769483</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>98.93847887876893</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -1257,28 +1257,28 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>59.18642621600367</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>151.2714921173871</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>186.7982527956746</v>
       </c>
       <c r="U9" t="n">
         <v>216.3098444776729</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>226.1116663261494</v>
       </c>
       <c r="W9" t="n">
-        <v>0</v>
+        <v>238.9027100790231</v>
       </c>
       <c r="X9" t="n">
-        <v>195.9378182409833</v>
+        <v>162.7954944641763</v>
       </c>
       <c r="Y9" t="n">
-        <v>163.7573039569402</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -1303,7 +1303,7 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>128.5900859387892</v>
       </c>
       <c r="H10" t="n">
         <v>157.7789187685189</v>
@@ -1312,7 +1312,7 @@
         <v>142.7610139533483</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>59.456666199969</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1336,7 +1336,7 @@
         <v>38.15196793284785</v>
       </c>
       <c r="R10" t="n">
-        <v>148.0265635717656</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1345,7 +1345,7 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>40.02018856699249</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>21.55446259401901</v>
+        <v>301.505800121417</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -1379,16 +1379,16 @@
         <v>302.2405586935323</v>
       </c>
       <c r="F11" t="n">
-        <v>321.4123747815095</v>
+        <v>234.6547480325181</v>
       </c>
       <c r="G11" t="n">
         <v>322.963691605646</v>
       </c>
       <c r="H11" t="n">
-        <v>236.9841012279518</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>67.76655404901211</v>
+        <v>67.76655404901209</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,16 +1418,16 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>88.0556715320233</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>131.8460619815676</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>245.0121773615962</v>
+        <v>245.0121773615961</v>
       </c>
       <c r="W11" t="n">
         <v>270.3122768395531</v>
@@ -1455,7 +1455,7 @@
         <v>137.45025063969</v>
       </c>
       <c r="E12" t="n">
-        <v>145.5577298436981</v>
+        <v>145.5577298436975</v>
       </c>
       <c r="F12" t="n">
         <v>133.3468600696244</v>
@@ -1464,7 +1464,7 @@
         <v>127.2368531361802</v>
       </c>
       <c r="H12" t="n">
-        <v>96.9647737324037</v>
+        <v>96.96477373240387</v>
       </c>
       <c r="I12" t="n">
         <v>60.66232013214973</v>
@@ -1525,28 +1525,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>93.12251099611413</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>62.94387023909297</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>61.89162009487242</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>78.46191704206581</v>
+        <v>25.36237972487617</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>49.01134651062355</v>
+        <v>49.01134651062352</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1585,7 +1585,7 @@
         <v>195.7116878360597</v>
       </c>
       <c r="V13" t="n">
-        <v>148.144089416401</v>
+        <v>169.5306473957397</v>
       </c>
       <c r="W13" t="n">
         <v>194.697533466353</v>
@@ -1604,28 +1604,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>301.505800121417</v>
+        <v>301.5058001214171</v>
       </c>
       <c r="C14" t="n">
-        <v>289.5171170790987</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>280.4984211236267</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>302.2405586935323</v>
+        <v>302.2405586935324</v>
       </c>
       <c r="F14" t="n">
         <v>321.4123747815095</v>
       </c>
       <c r="G14" t="n">
-        <v>322.963691605646</v>
+        <v>322.9636916056461</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>236.9841012279519</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>67.76655404901219</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,22 +1655,22 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>88.05567153202327</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>163.7086228358611</v>
+        <v>53.11651136622036</v>
       </c>
       <c r="V14" t="n">
-        <v>96.01214598442769</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>270.3122768395531</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>289.6125350722997</v>
       </c>
       <c r="Y14" t="n">
         <v>301.0091328684985</v>
@@ -1698,7 +1698,7 @@
         <v>133.3468600696244</v>
       </c>
       <c r="G15" t="n">
-        <v>127.2368531361802</v>
+        <v>127.2368531361808</v>
       </c>
       <c r="H15" t="n">
         <v>96.9647737324037</v>
@@ -1731,7 +1731,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>46.49806561112366</v>
+        <v>46.49806561112343</v>
       </c>
       <c r="S15" t="n">
         <v>147.4755605575067</v>
@@ -1765,25 +1765,25 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>79.32250584151458</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>62.94387023909297</v>
+        <v>62.94387023909307</v>
       </c>
       <c r="E16" t="n">
-        <v>61.89162009487242</v>
+        <v>61.89162009487252</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>62.35854442305883</v>
       </c>
       <c r="G16" t="n">
-        <v>78.46191704206578</v>
+        <v>78.46191704206588</v>
       </c>
       <c r="H16" t="n">
-        <v>67.65833440264893</v>
+        <v>67.65833440264903</v>
       </c>
       <c r="I16" t="n">
-        <v>49.01134651062352</v>
+        <v>49.01134651062362</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,28 +1810,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>51.72563515054808</v>
+        <v>51.72563515054818</v>
       </c>
       <c r="S16" t="n">
-        <v>119.989544549043</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>30.05443560040074</v>
+        <v>141.5178128501455</v>
       </c>
       <c r="U16" t="n">
-        <v>195.7116878360597</v>
+        <v>195.7116878360598</v>
       </c>
       <c r="V16" t="n">
-        <v>169.5306473957397</v>
+        <v>169.5306473957398</v>
       </c>
       <c r="W16" t="n">
         <v>194.697533466353</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>140.3426354621562</v>
       </c>
       <c r="Y16" t="n">
-        <v>131.2175032182238</v>
+        <v>16.36499647382013</v>
       </c>
     </row>
     <row r="17">
@@ -1895,7 +1895,7 @@
         <v>11.0731710678418</v>
       </c>
       <c r="T17" t="n">
-        <v>54.86356151738616</v>
+        <v>54.86356151738615</v>
       </c>
       <c r="U17" t="n">
         <v>86.72612237167962</v>
@@ -1968,13 +1968,13 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>46.49806561112343</v>
+        <v>46.49806561112366</v>
       </c>
       <c r="S18" t="n">
         <v>147.4755605575067</v>
       </c>
       <c r="T18" t="n">
-        <v>185.9745311655618</v>
+        <v>185.9745311655613</v>
       </c>
       <c r="U18" t="n">
         <v>216.2963996197277</v>
@@ -2011,10 +2011,10 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>93.18671644379431</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1.479416577884314</v>
+        <v>94.66613302167863</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2129,10 +2129,10 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>11.0731710678418</v>
+        <v>11.073171067841</v>
       </c>
       <c r="T20" t="n">
-        <v>54.86356151738531</v>
+        <v>54.86356151738615</v>
       </c>
       <c r="U20" t="n">
         <v>86.72612237167962</v>
@@ -2172,7 +2172,7 @@
         <v>133.3468600696244</v>
       </c>
       <c r="G21" t="n">
-        <v>127.2368531361802</v>
+        <v>127.2368531361808</v>
       </c>
       <c r="H21" t="n">
         <v>96.9647737324037</v>
@@ -2214,7 +2214,7 @@
         <v>185.9745311655613</v>
       </c>
       <c r="U21" t="n">
-        <v>216.2963996197281</v>
+        <v>216.2963996197277</v>
       </c>
       <c r="V21" t="n">
         <v>226.1116663261494</v>
@@ -2236,7 +2236,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>109.326726975727</v>
+        <v>16.14001053193263</v>
       </c>
       <c r="C22" t="n">
         <v>2.340005377333114</v>
@@ -2287,7 +2287,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>43.00704408486155</v>
+        <v>136.193760528656</v>
       </c>
       <c r="T22" t="n">
         <v>64.53531238596393</v>
@@ -2324,7 +2324,7 @@
         <v>203.5159206594453</v>
       </c>
       <c r="E23" t="n">
-        <v>225.2580582293507</v>
+        <v>225.2580582293508</v>
       </c>
       <c r="F23" t="n">
         <v>244.429874317328</v>
@@ -2397,7 +2397,7 @@
         <v>157.8252483534483</v>
       </c>
       <c r="C24" t="n">
-        <v>160.0866360314554</v>
+        <v>160.0866360314548</v>
       </c>
       <c r="D24" t="n">
         <v>137.45025063969</v>
@@ -2442,7 +2442,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>46.49806561112343</v>
+        <v>46.49806561112366</v>
       </c>
       <c r="S24" t="n">
         <v>147.4755605575067</v>
@@ -2482,7 +2482,7 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>93.18671644379431</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -2527,7 +2527,7 @@
         <v>43.00704408486155</v>
       </c>
       <c r="T25" t="n">
-        <v>64.53531238596393</v>
+        <v>157.7220288297584</v>
       </c>
       <c r="U25" t="n">
         <v>118.7291873718782</v>
@@ -2552,7 +2552,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>283.519722276351</v>
+        <v>283.5197222763511</v>
       </c>
       <c r="C26" t="n">
         <v>271.5310392340328</v>
@@ -2561,19 +2561,19 @@
         <v>262.5123432785608</v>
       </c>
       <c r="E26" t="n">
-        <v>284.2544808484663</v>
+        <v>284.2544808484664</v>
       </c>
       <c r="F26" t="n">
         <v>303.4262969364435</v>
       </c>
       <c r="G26" t="n">
-        <v>304.97761376058</v>
+        <v>304.9776137605801</v>
       </c>
       <c r="H26" t="n">
-        <v>218.9980233828858</v>
+        <v>218.9980233828859</v>
       </c>
       <c r="I26" t="n">
-        <v>49.78047620394612</v>
+        <v>49.78047620394617</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,13 +2603,13 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>70.06959368695729</v>
+        <v>70.06959368695735</v>
       </c>
       <c r="T26" t="n">
-        <v>113.8599841365016</v>
+        <v>113.8599841365017</v>
       </c>
       <c r="U26" t="n">
-        <v>145.7225449907951</v>
+        <v>145.7225449907952</v>
       </c>
       <c r="V26" t="n">
         <v>227.0260995165302</v>
@@ -2621,7 +2621,7 @@
         <v>271.6264572272337</v>
       </c>
       <c r="Y26" t="n">
-        <v>283.0230550234324</v>
+        <v>283.0230550234325</v>
       </c>
     </row>
     <row r="27">
@@ -2710,28 +2710,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>75.13643315104812</v>
+        <v>75.13643315104818</v>
       </c>
       <c r="C28" t="n">
-        <v>61.33642799644861</v>
+        <v>61.33642799644866</v>
       </c>
       <c r="D28" t="n">
-        <v>44.957792394027</v>
+        <v>44.95779239402705</v>
       </c>
       <c r="E28" t="n">
-        <v>43.90554224980644</v>
+        <v>43.9055422498065</v>
       </c>
       <c r="F28" t="n">
-        <v>44.37246657799275</v>
+        <v>44.37246657799281</v>
       </c>
       <c r="G28" t="n">
-        <v>60.47583919699981</v>
+        <v>60.47583919699986</v>
       </c>
       <c r="H28" t="n">
-        <v>49.67225655758295</v>
+        <v>49.67225655758301</v>
       </c>
       <c r="I28" t="n">
-        <v>31.02526866555754</v>
+        <v>31.0252686655576</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,19 +2758,19 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>33.7395573054821</v>
+        <v>33.73955730548216</v>
       </c>
       <c r="S28" t="n">
-        <v>102.003466703977</v>
+        <v>102.0034667039771</v>
       </c>
       <c r="T28" t="n">
-        <v>123.5317350050794</v>
+        <v>123.5317350050795</v>
       </c>
       <c r="U28" t="n">
-        <v>177.7256099909937</v>
+        <v>177.7256099909938</v>
       </c>
       <c r="V28" t="n">
-        <v>151.5445695506737</v>
+        <v>151.5445695506738</v>
       </c>
       <c r="W28" t="n">
         <v>176.711455621287</v>
@@ -2792,10 +2792,10 @@
         <v>283.519722276351</v>
       </c>
       <c r="C29" t="n">
-        <v>271.5310392340328</v>
+        <v>271.5310392340327</v>
       </c>
       <c r="D29" t="n">
-        <v>262.5123432785608</v>
+        <v>262.5123432785607</v>
       </c>
       <c r="E29" t="n">
         <v>284.2544808484663</v>
@@ -2810,7 +2810,7 @@
         <v>218.9980233828858</v>
       </c>
       <c r="I29" t="n">
-        <v>49.78047620394612</v>
+        <v>49.78047620394609</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>70.06959368695729</v>
+        <v>70.06959368695726</v>
       </c>
       <c r="T29" t="n">
         <v>113.8599841365016</v>
@@ -2849,10 +2849,10 @@
         <v>145.7225449907951</v>
       </c>
       <c r="V29" t="n">
-        <v>227.0260995165302</v>
+        <v>227.0260995165301</v>
       </c>
       <c r="W29" t="n">
-        <v>252.3261989944871</v>
+        <v>252.326198994487</v>
       </c>
       <c r="X29" t="n">
         <v>271.6264572272337</v>
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>75.13643315104812</v>
+        <v>75.1364331510481</v>
       </c>
       <c r="C31" t="n">
-        <v>61.33642799644861</v>
+        <v>61.33642799644858</v>
       </c>
       <c r="D31" t="n">
-        <v>44.957792394027</v>
+        <v>44.95779239402697</v>
       </c>
       <c r="E31" t="n">
-        <v>43.90554224980644</v>
+        <v>43.90554224980642</v>
       </c>
       <c r="F31" t="n">
-        <v>44.37246657799275</v>
+        <v>44.37246657799272</v>
       </c>
       <c r="G31" t="n">
-        <v>60.47583919699981</v>
+        <v>60.47583919699978</v>
       </c>
       <c r="H31" t="n">
-        <v>49.67225655758295</v>
+        <v>49.67225655758293</v>
       </c>
       <c r="I31" t="n">
-        <v>31.02526866555754</v>
+        <v>31.02526866555751</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>33.7395573054821</v>
+        <v>33.73955730548207</v>
       </c>
       <c r="S31" t="n">
         <v>102.003466703977</v>
@@ -3010,13 +3010,13 @@
         <v>151.5445695506737</v>
       </c>
       <c r="W31" t="n">
-        <v>176.711455621287</v>
+        <v>176.7114556212869</v>
       </c>
       <c r="X31" t="n">
         <v>122.3565576170901</v>
       </c>
       <c r="Y31" t="n">
-        <v>113.2314253731578</v>
+        <v>113.2314253731577</v>
       </c>
     </row>
     <row r="32">
@@ -3026,19 +3026,19 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>224.5232996572355</v>
+        <v>224.5232996572356</v>
       </c>
       <c r="C32" t="n">
         <v>212.5346166149173</v>
       </c>
       <c r="D32" t="n">
-        <v>203.5159206594452</v>
+        <v>203.5159206594453</v>
       </c>
       <c r="E32" t="n">
         <v>225.2580582293508</v>
       </c>
       <c r="F32" t="n">
-        <v>244.4298743173279</v>
+        <v>244.429874317328</v>
       </c>
       <c r="G32" t="n">
         <v>245.9811911414645</v>
@@ -3077,16 +3077,16 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>11.07317106784177</v>
+        <v>11.0731710678418</v>
       </c>
       <c r="T32" t="n">
-        <v>54.86356151738613</v>
+        <v>54.86356151738616</v>
       </c>
       <c r="U32" t="n">
-        <v>86.72612237167959</v>
+        <v>86.72612237167962</v>
       </c>
       <c r="V32" t="n">
-        <v>168.0296768974146</v>
+        <v>168.0296768974147</v>
       </c>
       <c r="W32" t="n">
         <v>193.3297763753716</v>
@@ -3095,7 +3095,7 @@
         <v>212.6300346081182</v>
       </c>
       <c r="Y32" t="n">
-        <v>224.0266324043169</v>
+        <v>224.026632404317</v>
       </c>
     </row>
     <row r="33">
@@ -3184,10 +3184,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>109.3267269757275</v>
+        <v>16.14001053193263</v>
       </c>
       <c r="C34" t="n">
-        <v>2.340005377333085</v>
+        <v>2.340005377333114</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -3199,7 +3199,7 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>1.479416577884286</v>
+        <v>1.479416577884314</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3235,25 +3235,25 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>43.00704408486152</v>
+        <v>136.193760528656</v>
       </c>
       <c r="T34" t="n">
-        <v>64.53531238596391</v>
+        <v>64.53531238596393</v>
       </c>
       <c r="U34" t="n">
         <v>118.7291873718782</v>
       </c>
       <c r="V34" t="n">
-        <v>92.54814693155819</v>
+        <v>92.54814693155822</v>
       </c>
       <c r="W34" t="n">
         <v>117.7150330021715</v>
       </c>
       <c r="X34" t="n">
-        <v>63.36013499797457</v>
+        <v>63.3601349979746</v>
       </c>
       <c r="Y34" t="n">
-        <v>54.23500275404226</v>
+        <v>54.23500275404228</v>
       </c>
     </row>
     <row r="35">
@@ -3263,19 +3263,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>224.5232996572355</v>
+        <v>224.5232996572356</v>
       </c>
       <c r="C35" t="n">
         <v>212.5346166149173</v>
       </c>
       <c r="D35" t="n">
-        <v>203.5159206594452</v>
+        <v>203.5159206594453</v>
       </c>
       <c r="E35" t="n">
         <v>225.2580582293508</v>
       </c>
       <c r="F35" t="n">
-        <v>244.4298743173279</v>
+        <v>244.429874317328</v>
       </c>
       <c r="G35" t="n">
         <v>245.9811911414645</v>
@@ -3314,16 +3314,16 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>11.07317106784177</v>
+        <v>11.0731710678418</v>
       </c>
       <c r="T35" t="n">
-        <v>54.86356151738613</v>
+        <v>54.86356151738616</v>
       </c>
       <c r="U35" t="n">
-        <v>86.72612237167959</v>
+        <v>86.72612237167962</v>
       </c>
       <c r="V35" t="n">
-        <v>168.0296768974146</v>
+        <v>168.0296768974147</v>
       </c>
       <c r="W35" t="n">
         <v>193.3297763753716</v>
@@ -3332,7 +3332,7 @@
         <v>212.6300346081182</v>
       </c>
       <c r="Y35" t="n">
-        <v>224.0266324043169</v>
+        <v>224.026632404317</v>
       </c>
     </row>
     <row r="36">
@@ -3421,10 +3421,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>16.1400105319326</v>
+        <v>16.14001053193263</v>
       </c>
       <c r="C37" t="n">
-        <v>2.340005377333085</v>
+        <v>2.340005377333114</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -3436,7 +3436,7 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>1.479416577884286</v>
+        <v>1.479416577884314</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3472,25 +3472,25 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>43.00704408486152</v>
+        <v>43.00704408486155</v>
       </c>
       <c r="T37" t="n">
-        <v>64.53531238596391</v>
+        <v>157.7220288297584</v>
       </c>
       <c r="U37" t="n">
         <v>118.7291873718782</v>
       </c>
       <c r="V37" t="n">
-        <v>92.54814693155819</v>
+        <v>92.54814693155822</v>
       </c>
       <c r="W37" t="n">
         <v>117.7150330021715</v>
       </c>
       <c r="X37" t="n">
-        <v>63.36013499797457</v>
+        <v>63.3601349979746</v>
       </c>
       <c r="Y37" t="n">
-        <v>147.4217191978371</v>
+        <v>54.23500275404228</v>
       </c>
     </row>
     <row r="38">
@@ -3500,19 +3500,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>224.5232996572355</v>
+        <v>224.5232996572356</v>
       </c>
       <c r="C38" t="n">
         <v>212.5346166149173</v>
       </c>
       <c r="D38" t="n">
-        <v>203.5159206594452</v>
+        <v>203.5159206594453</v>
       </c>
       <c r="E38" t="n">
         <v>225.2580582293508</v>
       </c>
       <c r="F38" t="n">
-        <v>244.4298743173279</v>
+        <v>244.429874317328</v>
       </c>
       <c r="G38" t="n">
         <v>245.9811911414645</v>
@@ -3551,16 +3551,16 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>11.07317106784177</v>
+        <v>11.0731710678418</v>
       </c>
       <c r="T38" t="n">
-        <v>54.86356151738613</v>
+        <v>54.86356151738616</v>
       </c>
       <c r="U38" t="n">
-        <v>86.72612237167959</v>
+        <v>86.72612237167962</v>
       </c>
       <c r="V38" t="n">
-        <v>168.0296768974146</v>
+        <v>168.0296768974147</v>
       </c>
       <c r="W38" t="n">
         <v>193.3297763753716</v>
@@ -3569,7 +3569,7 @@
         <v>212.6300346081182</v>
       </c>
       <c r="Y38" t="n">
-        <v>224.0266324043169</v>
+        <v>224.026632404317</v>
       </c>
     </row>
     <row r="39">
@@ -3627,7 +3627,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>46.49806561112411</v>
+        <v>46.49806561112343</v>
       </c>
       <c r="S39" t="n">
         <v>147.4755605575067</v>
@@ -3658,10 +3658,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>16.1400105319326</v>
+        <v>16.14001053193263</v>
       </c>
       <c r="C40" t="n">
-        <v>2.340005377333085</v>
+        <v>2.340005377333114</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -3673,10 +3673,10 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>1.479416577884286</v>
+        <v>1.479416577884314</v>
       </c>
       <c r="H40" t="n">
-        <v>93.18671644379477</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3709,25 +3709,25 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>43.00704408486152</v>
+        <v>136.193760528656</v>
       </c>
       <c r="T40" t="n">
-        <v>64.53531238596391</v>
+        <v>64.53531238596393</v>
       </c>
       <c r="U40" t="n">
         <v>118.7291873718782</v>
       </c>
       <c r="V40" t="n">
-        <v>92.54814693155819</v>
+        <v>92.54814693155822</v>
       </c>
       <c r="W40" t="n">
         <v>117.7150330021715</v>
       </c>
       <c r="X40" t="n">
-        <v>63.36013499797457</v>
+        <v>63.3601349979746</v>
       </c>
       <c r="Y40" t="n">
-        <v>54.23500275404226</v>
+        <v>54.23500275404228</v>
       </c>
     </row>
     <row r="41">
@@ -3737,19 +3737,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>224.5232996572356</v>
+        <v>224.5232996572355</v>
       </c>
       <c r="C41" t="n">
         <v>212.5346166149173</v>
       </c>
       <c r="D41" t="n">
-        <v>203.5159206594453</v>
+        <v>203.5159206594452</v>
       </c>
       <c r="E41" t="n">
         <v>225.2580582293508</v>
       </c>
       <c r="F41" t="n">
-        <v>244.429874317328</v>
+        <v>244.4298743173279</v>
       </c>
       <c r="G41" t="n">
         <v>245.9811911414645</v>
@@ -3788,16 +3788,16 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>11.0731710678418</v>
+        <v>11.07317106784177</v>
       </c>
       <c r="T41" t="n">
-        <v>54.86356151738616</v>
+        <v>54.86356151738613</v>
       </c>
       <c r="U41" t="n">
-        <v>86.72612237167962</v>
+        <v>86.72612237167959</v>
       </c>
       <c r="V41" t="n">
-        <v>168.0296768974147</v>
+        <v>168.0296768974146</v>
       </c>
       <c r="W41" t="n">
         <v>193.3297763753716</v>
@@ -3806,7 +3806,7 @@
         <v>212.6300346081182</v>
       </c>
       <c r="Y41" t="n">
-        <v>224.026632404317</v>
+        <v>224.0266324043169</v>
       </c>
     </row>
     <row r="42">
@@ -3895,10 +3895,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>16.14001053193263</v>
+        <v>16.1400105319326</v>
       </c>
       <c r="C43" t="n">
-        <v>2.340005377333114</v>
+        <v>2.340005377333085</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -3910,7 +3910,7 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>1.479416577884314</v>
+        <v>1.479416577884286</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3940,31 +3940,31 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>23.80540818138466</v>
+        <v>0</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>43.00704408486155</v>
+        <v>43.00704408486152</v>
       </c>
       <c r="T43" t="n">
-        <v>64.53531238596393</v>
+        <v>64.53531238596391</v>
       </c>
       <c r="U43" t="n">
-        <v>118.7291873718782</v>
+        <v>211.9159038156731</v>
       </c>
       <c r="V43" t="n">
-        <v>92.54814693155822</v>
+        <v>92.54814693155819</v>
       </c>
       <c r="W43" t="n">
-        <v>187.0963412645813</v>
+        <v>117.7150330021715</v>
       </c>
       <c r="X43" t="n">
-        <v>63.3601349979746</v>
+        <v>63.36013499797457</v>
       </c>
       <c r="Y43" t="n">
-        <v>54.23500275404228</v>
+        <v>54.23500275404226</v>
       </c>
     </row>
     <row r="44">
@@ -4056,7 +4056,7 @@
         <v>157.8252483534483</v>
       </c>
       <c r="C45" t="n">
-        <v>160.0866360314554</v>
+        <v>160.0866360314548</v>
       </c>
       <c r="D45" t="n">
         <v>137.45025063969</v>
@@ -4183,7 +4183,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>43.00704408486155</v>
+        <v>136.193760528656</v>
       </c>
       <c r="T46" t="n">
         <v>64.53531238596393</v>
@@ -4192,7 +4192,7 @@
         <v>118.7291873718782</v>
       </c>
       <c r="V46" t="n">
-        <v>185.7348633753526</v>
+        <v>92.54814693155822</v>
       </c>
       <c r="W46" t="n">
         <v>117.7150330021715</v>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>95.89650260131504</v>
+        <v>220.0535189038511</v>
       </c>
       <c r="C2" t="n">
-        <v>95.89650260131504</v>
+        <v>124.8827081357588</v>
       </c>
       <c r="D2" t="n">
-        <v>95.89650260131504</v>
+        <v>29.71189736766649</v>
       </c>
       <c r="E2" t="n">
-        <v>29.71189736766652</v>
+        <v>29.71189736766649</v>
       </c>
       <c r="F2" t="n">
-        <v>19.60111071824091</v>
+        <v>19.60111071824088</v>
       </c>
       <c r="G2" t="n">
-        <v>7.537528212832942</v>
+        <v>7.537528212832911</v>
       </c>
       <c r="H2" t="n">
-        <v>7.537528212832942</v>
+        <v>7.537528212832911</v>
       </c>
       <c r="I2" t="n">
-        <v>7.537528212832942</v>
+        <v>7.537528212832911</v>
       </c>
       <c r="J2" t="n">
-        <v>79.5360724856386</v>
+        <v>79.53607248563857</v>
       </c>
       <c r="K2" t="n">
-        <v>97.04567574022411</v>
+        <v>79.53607248563857</v>
       </c>
       <c r="L2" t="n">
-        <v>97.04567574022411</v>
+        <v>79.53607248563857</v>
       </c>
       <c r="M2" t="n">
-        <v>190.3225873740318</v>
+        <v>97.04567574022373</v>
       </c>
       <c r="N2" t="n">
-        <v>283.5994990078394</v>
+        <v>97.04567574022373</v>
       </c>
       <c r="O2" t="n">
-        <v>283.5994990078394</v>
+        <v>190.322587374031</v>
       </c>
       <c r="P2" t="n">
-        <v>376.8764106416471</v>
+        <v>283.5994990078383</v>
       </c>
       <c r="Q2" t="n">
-        <v>376.8764106416471</v>
+        <v>376.8764106416456</v>
       </c>
       <c r="R2" t="n">
-        <v>286.2381241375004</v>
+        <v>376.8764106416456</v>
       </c>
       <c r="S2" t="n">
-        <v>286.2381241375004</v>
+        <v>376.8764106416456</v>
       </c>
       <c r="T2" t="n">
-        <v>286.2381241375004</v>
+        <v>376.8764106416456</v>
       </c>
       <c r="U2" t="n">
-        <v>286.2381241375004</v>
+        <v>376.8764106416456</v>
       </c>
       <c r="V2" t="n">
-        <v>286.2381241375004</v>
+        <v>376.8764106416456</v>
       </c>
       <c r="W2" t="n">
-        <v>286.2381241375004</v>
+        <v>376.8764106416456</v>
       </c>
       <c r="X2" t="n">
-        <v>191.0673133694077</v>
+        <v>315.2243296719435</v>
       </c>
       <c r="Y2" t="n">
-        <v>95.89650260131504</v>
+        <v>315.2243296719435</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>102.7083389809256</v>
+        <v>7.537528212832911</v>
       </c>
       <c r="C3" t="n">
-        <v>7.537528212832942</v>
+        <v>7.537528212832911</v>
       </c>
       <c r="D3" t="n">
-        <v>7.537528212832942</v>
+        <v>7.537528212832911</v>
       </c>
       <c r="E3" t="n">
-        <v>7.537528212832942</v>
+        <v>7.537528212832911</v>
       </c>
       <c r="F3" t="n">
-        <v>7.537528212832942</v>
+        <v>7.537528212832911</v>
       </c>
       <c r="G3" t="n">
-        <v>7.537528212832942</v>
+        <v>7.537528212832911</v>
       </c>
       <c r="H3" t="n">
-        <v>7.537528212832942</v>
+        <v>7.537528212832911</v>
       </c>
       <c r="I3" t="n">
-        <v>7.537528212832942</v>
+        <v>7.537528212832911</v>
       </c>
       <c r="J3" t="n">
-        <v>67.79167474593909</v>
+        <v>67.79167474593906</v>
       </c>
       <c r="K3" t="n">
-        <v>67.79167474593909</v>
+        <v>161.0685863797463</v>
       </c>
       <c r="L3" t="n">
-        <v>67.79167474593909</v>
+        <v>161.0685863797463</v>
       </c>
       <c r="M3" t="n">
-        <v>97.04567574022411</v>
+        <v>161.0685863797463</v>
       </c>
       <c r="N3" t="n">
-        <v>190.3225873740318</v>
+        <v>190.322587374031</v>
       </c>
       <c r="O3" t="n">
-        <v>283.5994990078394</v>
+        <v>190.322587374031</v>
       </c>
       <c r="P3" t="n">
-        <v>376.8764106416471</v>
+        <v>283.5994990078383</v>
       </c>
       <c r="Q3" t="n">
-        <v>376.8764106416471</v>
+        <v>376.8764106416456</v>
       </c>
       <c r="R3" t="n">
-        <v>376.8764106416471</v>
+        <v>317.0921417365914</v>
       </c>
       <c r="S3" t="n">
-        <v>293.0499605171111</v>
+        <v>221.921330968499</v>
       </c>
       <c r="T3" t="n">
-        <v>293.0499605171111</v>
+        <v>126.7505202004067</v>
       </c>
       <c r="U3" t="n">
-        <v>293.0499605171111</v>
+        <v>31.57970943231439</v>
       </c>
       <c r="V3" t="n">
-        <v>197.8791497490184</v>
+        <v>31.57970943231439</v>
       </c>
       <c r="W3" t="n">
-        <v>197.8791497490184</v>
+        <v>7.537528212832911</v>
       </c>
       <c r="X3" t="n">
-        <v>197.8791497490184</v>
+        <v>7.537528212832911</v>
       </c>
       <c r="Y3" t="n">
-        <v>102.7083389809256</v>
+        <v>7.537528212832911</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>7.537528212832942</v>
+        <v>7.537528212832911</v>
       </c>
       <c r="C4" t="n">
-        <v>7.537528212832942</v>
+        <v>7.537528212832911</v>
       </c>
       <c r="D4" t="n">
-        <v>7.537528212832942</v>
+        <v>7.537528212832911</v>
       </c>
       <c r="E4" t="n">
-        <v>7.537528212832942</v>
+        <v>7.537528212832911</v>
       </c>
       <c r="F4" t="n">
-        <v>7.537528212832942</v>
+        <v>7.537528212832911</v>
       </c>
       <c r="G4" t="n">
-        <v>7.537528212832942</v>
+        <v>7.537528212832911</v>
       </c>
       <c r="H4" t="n">
-        <v>7.537528212832942</v>
+        <v>7.537528212832911</v>
       </c>
       <c r="I4" t="n">
-        <v>7.537528212832942</v>
+        <v>7.537528212832911</v>
       </c>
       <c r="J4" t="n">
-        <v>7.537528212832942</v>
+        <v>7.537528212832911</v>
       </c>
       <c r="K4" t="n">
-        <v>7.537528212832942</v>
+        <v>7.537528212832911</v>
       </c>
       <c r="L4" t="n">
-        <v>100.8144398466406</v>
+        <v>34.07719201208593</v>
       </c>
       <c r="M4" t="n">
-        <v>190.3225873740318</v>
+        <v>127.3541036458932</v>
       </c>
       <c r="N4" t="n">
-        <v>283.5994990078394</v>
+        <v>220.6310152797005</v>
       </c>
       <c r="O4" t="n">
-        <v>376.8764106416471</v>
+        <v>313.9079269135078</v>
       </c>
       <c r="P4" t="n">
-        <v>376.8764106416471</v>
+        <v>376.8764106416456</v>
       </c>
       <c r="Q4" t="n">
-        <v>376.8764106416471</v>
+        <v>376.8764106416456</v>
       </c>
       <c r="R4" t="n">
-        <v>293.0499605171111</v>
+        <v>376.8764106416456</v>
       </c>
       <c r="S4" t="n">
-        <v>293.0499605171111</v>
+        <v>376.8764106416456</v>
       </c>
       <c r="T4" t="n">
-        <v>197.8791497490184</v>
+        <v>293.0499605171099</v>
       </c>
       <c r="U4" t="n">
-        <v>102.7083389809256</v>
+        <v>197.8791497490176</v>
       </c>
       <c r="V4" t="n">
-        <v>102.7083389809256</v>
+        <v>102.7083389809252</v>
       </c>
       <c r="W4" t="n">
-        <v>102.7083389809256</v>
+        <v>7.537528212832911</v>
       </c>
       <c r="X4" t="n">
-        <v>102.7083389809256</v>
+        <v>7.537528212832911</v>
       </c>
       <c r="Y4" t="n">
-        <v>7.537528212832942</v>
+        <v>7.537528212832911</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>186.5347891054617</v>
+        <v>281.7055998735532</v>
       </c>
       <c r="C5" t="n">
-        <v>186.5347891054617</v>
+        <v>281.7055998735532</v>
       </c>
       <c r="D5" t="n">
-        <v>91.36397833736902</v>
+        <v>281.7055998735532</v>
       </c>
       <c r="E5" t="n">
-        <v>91.36397833736902</v>
+        <v>186.5347891054609</v>
       </c>
       <c r="F5" t="n">
-        <v>81.2531916879434</v>
+        <v>176.4240024560353</v>
       </c>
       <c r="G5" t="n">
-        <v>69.18960918253543</v>
+        <v>164.3604199506273</v>
       </c>
       <c r="H5" t="n">
-        <v>7.537528212832942</v>
+        <v>102.7083389809252</v>
       </c>
       <c r="I5" t="n">
-        <v>7.537528212832942</v>
+        <v>7.537528212832911</v>
       </c>
       <c r="J5" t="n">
-        <v>7.537528212832942</v>
+        <v>79.53607248563857</v>
       </c>
       <c r="K5" t="n">
-        <v>7.537528212832942</v>
+        <v>172.8129841194458</v>
       </c>
       <c r="L5" t="n">
-        <v>97.04567574022411</v>
+        <v>266.0898957532531</v>
       </c>
       <c r="M5" t="n">
-        <v>190.3225873740318</v>
+        <v>266.0898957532531</v>
       </c>
       <c r="N5" t="n">
-        <v>190.3225873740318</v>
+        <v>266.0898957532531</v>
       </c>
       <c r="O5" t="n">
-        <v>283.5994990078394</v>
+        <v>266.0898957532531</v>
       </c>
       <c r="P5" t="n">
-        <v>283.5994990078394</v>
+        <v>283.5994990078383</v>
       </c>
       <c r="Q5" t="n">
-        <v>376.8764106416471</v>
+        <v>376.8764106416456</v>
       </c>
       <c r="R5" t="n">
-        <v>376.8764106416471</v>
+        <v>376.8764106416456</v>
       </c>
       <c r="S5" t="n">
-        <v>376.8764106416471</v>
+        <v>376.8764106416456</v>
       </c>
       <c r="T5" t="n">
-        <v>376.8764106416471</v>
+        <v>376.8764106416456</v>
       </c>
       <c r="U5" t="n">
-        <v>376.8764106416471</v>
+        <v>376.8764106416456</v>
       </c>
       <c r="V5" t="n">
-        <v>376.8764106416471</v>
+        <v>376.8764106416456</v>
       </c>
       <c r="W5" t="n">
-        <v>281.7055998735544</v>
+        <v>376.8764106416456</v>
       </c>
       <c r="X5" t="n">
-        <v>186.5347891054617</v>
+        <v>376.8764106416456</v>
       </c>
       <c r="Y5" t="n">
-        <v>186.5347891054617</v>
+        <v>376.8764106416456</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>281.7055998735544</v>
+        <v>317.0921417365914</v>
       </c>
       <c r="C6" t="n">
-        <v>186.5347891054617</v>
+        <v>317.0921417365914</v>
       </c>
       <c r="D6" t="n">
-        <v>102.7083389809256</v>
+        <v>317.0921417365914</v>
       </c>
       <c r="E6" t="n">
-        <v>102.7083389809256</v>
+        <v>293.0499605171099</v>
       </c>
       <c r="F6" t="n">
-        <v>7.537528212832942</v>
+        <v>197.8791497490176</v>
       </c>
       <c r="G6" t="n">
-        <v>7.537528212832942</v>
+        <v>102.7083389809252</v>
       </c>
       <c r="H6" t="n">
-        <v>7.537528212832942</v>
+        <v>7.537528212832911</v>
       </c>
       <c r="I6" t="n">
-        <v>7.537528212832942</v>
+        <v>7.537528212832911</v>
       </c>
       <c r="J6" t="n">
-        <v>7.537528212832942</v>
+        <v>67.79167474593906</v>
       </c>
       <c r="K6" t="n">
-        <v>7.537528212832942</v>
+        <v>161.0685863797463</v>
       </c>
       <c r="L6" t="n">
-        <v>100.8144398466406</v>
+        <v>190.322587374031</v>
       </c>
       <c r="M6" t="n">
-        <v>194.0913514804483</v>
+        <v>283.5994990078383</v>
       </c>
       <c r="N6" t="n">
-        <v>194.0913514804483</v>
+        <v>283.5994990078383</v>
       </c>
       <c r="O6" t="n">
-        <v>283.5994990078394</v>
+        <v>283.5994990078383</v>
       </c>
       <c r="P6" t="n">
-        <v>376.8764106416471</v>
+        <v>283.5994990078383</v>
       </c>
       <c r="Q6" t="n">
-        <v>376.8764106416471</v>
+        <v>376.8764106416456</v>
       </c>
       <c r="R6" t="n">
-        <v>376.8764106416471</v>
+        <v>317.0921417365914</v>
       </c>
       <c r="S6" t="n">
-        <v>376.8764106416471</v>
+        <v>317.0921417365914</v>
       </c>
       <c r="T6" t="n">
-        <v>376.8764106416471</v>
+        <v>317.0921417365914</v>
       </c>
       <c r="U6" t="n">
-        <v>376.8764106416471</v>
+        <v>317.0921417365914</v>
       </c>
       <c r="V6" t="n">
-        <v>376.8764106416471</v>
+        <v>317.0921417365914</v>
       </c>
       <c r="W6" t="n">
-        <v>376.8764106416471</v>
+        <v>317.0921417365914</v>
       </c>
       <c r="X6" t="n">
-        <v>376.8764106416471</v>
+        <v>317.0921417365914</v>
       </c>
       <c r="Y6" t="n">
-        <v>281.7055998735544</v>
+        <v>317.0921417365914</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>197.8791497490184</v>
+        <v>67.59476679866019</v>
       </c>
       <c r="C7" t="n">
-        <v>102.7083389809256</v>
+        <v>67.59476679866019</v>
       </c>
       <c r="D7" t="n">
-        <v>7.537528212832942</v>
+        <v>67.59476679866019</v>
       </c>
       <c r="E7" t="n">
-        <v>7.537528212832942</v>
+        <v>67.59476679866019</v>
       </c>
       <c r="F7" t="n">
-        <v>7.537528212832942</v>
+        <v>67.59476679866019</v>
       </c>
       <c r="G7" t="n">
-        <v>7.537528212832942</v>
+        <v>67.59476679866019</v>
       </c>
       <c r="H7" t="n">
-        <v>7.537528212832942</v>
+        <v>67.59476679866019</v>
       </c>
       <c r="I7" t="n">
-        <v>7.537528212832942</v>
+        <v>67.59476679866019</v>
       </c>
       <c r="J7" t="n">
-        <v>7.537528212832942</v>
+        <v>7.537528212832911</v>
       </c>
       <c r="K7" t="n">
-        <v>41.14171595747635</v>
+        <v>7.537528212832911</v>
       </c>
       <c r="L7" t="n">
-        <v>127.354103645894</v>
+        <v>97.04567574022373</v>
       </c>
       <c r="M7" t="n">
-        <v>127.354103645894</v>
+        <v>190.322587374031</v>
       </c>
       <c r="N7" t="n">
-        <v>220.6310152797016</v>
+        <v>283.5994990078383</v>
       </c>
       <c r="O7" t="n">
-        <v>313.9079269135093</v>
+        <v>376.8764106416456</v>
       </c>
       <c r="P7" t="n">
-        <v>376.8764106416471</v>
+        <v>376.8764106416456</v>
       </c>
       <c r="Q7" t="n">
-        <v>376.8764106416471</v>
+        <v>338.3390692953346</v>
       </c>
       <c r="R7" t="n">
-        <v>281.7055998735544</v>
+        <v>338.3390692953346</v>
       </c>
       <c r="S7" t="n">
-        <v>281.7055998735544</v>
+        <v>338.3390692953346</v>
       </c>
       <c r="T7" t="n">
-        <v>281.7055998735544</v>
+        <v>243.1682585272423</v>
       </c>
       <c r="U7" t="n">
-        <v>281.7055998735544</v>
+        <v>147.99744775915</v>
       </c>
       <c r="V7" t="n">
-        <v>281.7055998735544</v>
+        <v>67.59476679866019</v>
       </c>
       <c r="W7" t="n">
-        <v>281.7055998735544</v>
+        <v>67.59476679866019</v>
       </c>
       <c r="X7" t="n">
-        <v>281.7055998735544</v>
+        <v>67.59476679866019</v>
       </c>
       <c r="Y7" t="n">
-        <v>281.7055998735544</v>
+        <v>67.59476679866019</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1179.792959572147</v>
+        <v>866.7963877273075</v>
       </c>
       <c r="C8" t="n">
-        <v>856.6856010778836</v>
+        <v>543.6890292330454</v>
       </c>
       <c r="D8" t="n">
-        <v>856.6856010778836</v>
+        <v>220.5816707387831</v>
       </c>
       <c r="E8" t="n">
-        <v>856.6856010778836</v>
+        <v>220.5816707387831</v>
       </c>
       <c r="F8" t="n">
-        <v>533.5782425836205</v>
+        <v>210.4708840893575</v>
       </c>
       <c r="G8" t="n">
-        <v>521.5146600782126</v>
+        <v>198.4073015839496</v>
       </c>
       <c r="H8" t="n">
         <v>198.4073015839496</v>
       </c>
       <c r="I8" t="n">
-        <v>25.59010279274563</v>
+        <v>25.59010279274557</v>
       </c>
       <c r="J8" t="n">
-        <v>97.58864706555129</v>
+        <v>25.59010279274557</v>
       </c>
       <c r="K8" t="n">
-        <v>97.58864706555129</v>
+        <v>25.59010279274557</v>
       </c>
       <c r="L8" t="n">
-        <v>97.58864706555129</v>
+        <v>342.2676248529719</v>
       </c>
       <c r="M8" t="n">
-        <v>414.2661691257784</v>
+        <v>658.9451469131982</v>
       </c>
       <c r="N8" t="n">
-        <v>730.9436911860056</v>
+        <v>974.5005551644443</v>
       </c>
       <c r="O8" t="n">
-        <v>1035.94827565884</v>
+        <v>1279.505139637278</v>
       </c>
       <c r="P8" t="n">
-        <v>1264.105172114893</v>
+        <v>1279.505139637278</v>
       </c>
       <c r="Q8" t="n">
-        <v>1279.505139637281</v>
+        <v>1279.505139637278</v>
       </c>
       <c r="R8" t="n">
-        <v>1279.505139637281</v>
+        <v>1279.505139637278</v>
       </c>
       <c r="S8" t="n">
-        <v>1279.505139637281</v>
+        <v>1279.505139637278</v>
       </c>
       <c r="T8" t="n">
-        <v>1279.505139637281</v>
+        <v>1279.505139637278</v>
       </c>
       <c r="U8" t="n">
-        <v>1279.505139637281</v>
+        <v>1279.505139637278</v>
       </c>
       <c r="V8" t="n">
-        <v>1179.792959572147</v>
+        <v>1279.505139637278</v>
       </c>
       <c r="W8" t="n">
-        <v>1179.792959572147</v>
+        <v>1279.505139637278</v>
       </c>
       <c r="X8" t="n">
-        <v>1179.792959572147</v>
+        <v>1279.505139637278</v>
       </c>
       <c r="Y8" t="n">
-        <v>1179.792959572147</v>
+        <v>1189.90374622157</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4857,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>697.6819409750626</v>
+        <v>25.59010279274557</v>
       </c>
       <c r="C9" t="n">
-        <v>535.9782682160173</v>
+        <v>25.59010279274557</v>
       </c>
       <c r="D9" t="n">
-        <v>535.9782682160173</v>
+        <v>25.59010279274557</v>
       </c>
       <c r="E9" t="n">
-        <v>388.9502582728886</v>
+        <v>25.59010279274557</v>
       </c>
       <c r="F9" t="n">
-        <v>254.256460222763</v>
+        <v>25.59010279274557</v>
       </c>
       <c r="G9" t="n">
-        <v>125.5279602460476</v>
+        <v>25.59010279274557</v>
       </c>
       <c r="H9" t="n">
-        <v>25.59010279274563</v>
+        <v>25.59010279274557</v>
       </c>
       <c r="I9" t="n">
-        <v>25.59010279274563</v>
+        <v>25.59010279274557</v>
       </c>
       <c r="J9" t="n">
-        <v>85.84424932585178</v>
+        <v>25.59010279274557</v>
       </c>
       <c r="K9" t="n">
-        <v>85.84424932585178</v>
+        <v>25.59010279274557</v>
       </c>
       <c r="L9" t="n">
-        <v>85.84424932585178</v>
+        <v>25.59010279274557</v>
       </c>
       <c r="M9" t="n">
-        <v>402.5217713860789</v>
+        <v>186.282546455534</v>
       </c>
       <c r="N9" t="n">
-        <v>719.199293446306</v>
+        <v>502.9600685157603</v>
       </c>
       <c r="O9" t="n">
-        <v>1035.876815506533</v>
+        <v>819.6375905759867</v>
       </c>
       <c r="P9" t="n">
-        <v>1279.505139637281</v>
+        <v>1121.733509851684</v>
       </c>
       <c r="Q9" t="n">
-        <v>1279.505139637281</v>
+        <v>1279.505139637278</v>
       </c>
       <c r="R9" t="n">
-        <v>1279.505139637281</v>
+        <v>1219.720870732224</v>
       </c>
       <c r="S9" t="n">
-        <v>1279.505139637281</v>
+        <v>1066.921383744964</v>
       </c>
       <c r="T9" t="n">
-        <v>1279.505139637281</v>
+        <v>878.2362799109494</v>
       </c>
       <c r="U9" t="n">
-        <v>1061.010347235592</v>
+        <v>659.7414875092595</v>
       </c>
       <c r="V9" t="n">
-        <v>1061.010347235592</v>
+        <v>431.3458649575934</v>
       </c>
       <c r="W9" t="n">
-        <v>1061.010347235592</v>
+        <v>190.0299961909035</v>
       </c>
       <c r="X9" t="n">
-        <v>863.0933591133861</v>
+        <v>25.59010279274557</v>
       </c>
       <c r="Y9" t="n">
-        <v>697.6819409750626</v>
+        <v>25.59010279274557</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>329.1657924107933</v>
+        <v>1240.967798290967</v>
       </c>
       <c r="C10" t="n">
-        <v>329.1657924107933</v>
+        <v>1240.967798290967</v>
       </c>
       <c r="D10" t="n">
-        <v>329.1657924107933</v>
+        <v>1240.967798290967</v>
       </c>
       <c r="E10" t="n">
-        <v>329.1657924107933</v>
+        <v>1240.967798290967</v>
       </c>
       <c r="F10" t="n">
-        <v>329.1657924107933</v>
+        <v>1240.967798290967</v>
       </c>
       <c r="G10" t="n">
-        <v>329.1657924107933</v>
+        <v>1111.078822595221</v>
       </c>
       <c r="H10" t="n">
-        <v>169.7931471900671</v>
+        <v>951.7061773744945</v>
       </c>
       <c r="I10" t="n">
-        <v>25.59010279274563</v>
+        <v>807.503132977173</v>
       </c>
       <c r="J10" t="n">
-        <v>25.59010279274563</v>
+        <v>747.4458943913457</v>
       </c>
       <c r="K10" t="n">
-        <v>59.19429053738904</v>
+        <v>781.0500821359892</v>
       </c>
       <c r="L10" t="n">
-        <v>159.8013699376485</v>
+        <v>881.6571615362487</v>
       </c>
       <c r="M10" t="n">
-        <v>277.7948760652503</v>
+        <v>999.6506676638504</v>
       </c>
       <c r="N10" t="n">
-        <v>396.2172178148506</v>
+        <v>1118.073009413451</v>
       </c>
       <c r="O10" t="n">
-        <v>494.6808643105403</v>
+        <v>1216.536655909141</v>
       </c>
       <c r="P10" t="n">
-        <v>557.6493480386781</v>
+        <v>1279.505139637278</v>
       </c>
       <c r="Q10" t="n">
-        <v>519.1120066923671</v>
+        <v>1240.967798290967</v>
       </c>
       <c r="R10" t="n">
-        <v>369.5902253067453</v>
+        <v>1240.967798290967</v>
       </c>
       <c r="S10" t="n">
-        <v>369.5902253067453</v>
+        <v>1240.967798290967</v>
       </c>
       <c r="T10" t="n">
-        <v>369.5902253067453</v>
+        <v>1240.967798290967</v>
       </c>
       <c r="U10" t="n">
-        <v>329.1657924107933</v>
+        <v>1240.967798290967</v>
       </c>
       <c r="V10" t="n">
-        <v>329.1657924107933</v>
+        <v>1240.967798290967</v>
       </c>
       <c r="W10" t="n">
-        <v>329.1657924107933</v>
+        <v>1240.967798290967</v>
       </c>
       <c r="X10" t="n">
-        <v>329.1657924107933</v>
+        <v>1240.967798290967</v>
       </c>
       <c r="Y10" t="n">
-        <v>329.1657924107933</v>
+        <v>1240.967798290967</v>
       </c>
     </row>
     <row r="11">
@@ -5015,37 +5015,37 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1314.861271369832</v>
+        <v>987.8494249284756</v>
       </c>
       <c r="C11" t="n">
-        <v>1314.861271369832</v>
+        <v>987.8494249284756</v>
       </c>
       <c r="D11" t="n">
-        <v>1314.861271369832</v>
+        <v>987.8494249284756</v>
       </c>
       <c r="E11" t="n">
-        <v>1009.567777740002</v>
+        <v>682.555931298645</v>
       </c>
       <c r="F11" t="n">
-        <v>684.9088133142345</v>
+        <v>445.5309332860007</v>
       </c>
       <c r="G11" t="n">
-        <v>358.6828621974203</v>
+        <v>119.3049821691864</v>
       </c>
       <c r="H11" t="n">
-        <v>119.3049821691865</v>
+        <v>119.3049821691864</v>
       </c>
       <c r="I11" t="n">
-        <v>50.85391747321462</v>
+        <v>50.85391747321461</v>
       </c>
       <c r="J11" t="n">
-        <v>154.9459054532634</v>
+        <v>154.9459054532632</v>
       </c>
       <c r="K11" t="n">
-        <v>443.1860302481634</v>
+        <v>443.186030248163</v>
       </c>
       <c r="L11" t="n">
-        <v>850.7433998907119</v>
+        <v>850.7433998907115</v>
       </c>
       <c r="M11" t="n">
         <v>1310.379159876956</v>
@@ -5060,31 +5060,31 @@
         <v>2407.429665198535</v>
       </c>
       <c r="Q11" t="n">
-        <v>2542.695873660731</v>
+        <v>2542.69587366073</v>
       </c>
       <c r="R11" t="n">
-        <v>2542.695873660731</v>
+        <v>2542.69587366073</v>
       </c>
       <c r="S11" t="n">
-        <v>2453.750750901112</v>
+        <v>2542.69587366073</v>
       </c>
       <c r="T11" t="n">
-        <v>2453.750750901112</v>
+        <v>2409.518033275308</v>
       </c>
       <c r="U11" t="n">
-        <v>2453.750750901112</v>
+        <v>2409.518033275308</v>
       </c>
       <c r="V11" t="n">
-        <v>2206.263703061115</v>
+        <v>2162.030985435312</v>
       </c>
       <c r="W11" t="n">
-        <v>1933.220999182779</v>
+        <v>1888.988281556976</v>
       </c>
       <c r="X11" t="n">
-        <v>1640.683084968335</v>
+        <v>1596.450367342532</v>
       </c>
       <c r="Y11" t="n">
-        <v>1336.633455808235</v>
+        <v>1292.400738182432</v>
       </c>
     </row>
     <row r="12">
@@ -5094,37 +5094,37 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>920.8593958421045</v>
+        <v>920.859395842104</v>
       </c>
       <c r="C12" t="n">
-        <v>759.1557230830592</v>
+        <v>759.1557230830588</v>
       </c>
       <c r="D12" t="n">
-        <v>620.3170860732713</v>
+        <v>620.3170860732708</v>
       </c>
       <c r="E12" t="n">
-        <v>473.2890761301419</v>
+        <v>473.2890761301421</v>
       </c>
       <c r="F12" t="n">
-        <v>338.5952780800163</v>
+        <v>338.5952780800164</v>
       </c>
       <c r="G12" t="n">
-        <v>210.0732042050868</v>
+        <v>210.0732042050869</v>
       </c>
       <c r="H12" t="n">
         <v>112.1289883137699</v>
       </c>
       <c r="I12" t="n">
-        <v>50.85391747321462</v>
+        <v>50.85391747321461</v>
       </c>
       <c r="J12" t="n">
-        <v>50.85391747321462</v>
+        <v>50.85391747321461</v>
       </c>
       <c r="K12" t="n">
-        <v>68.10001809715425</v>
+        <v>313.014426141483</v>
       </c>
       <c r="L12" t="n">
-        <v>477.85065097758</v>
+        <v>477.8506509775796</v>
       </c>
       <c r="M12" t="n">
         <v>1014.14682775868</v>
@@ -5136,28 +5136,28 @@
         <v>2018.368674122672</v>
       </c>
       <c r="P12" t="n">
-        <v>2359.098500262959</v>
+        <v>2359.098500262958</v>
       </c>
       <c r="Q12" t="n">
-        <v>2542.695873660731</v>
+        <v>2542.69587366073</v>
       </c>
       <c r="R12" t="n">
         <v>2495.728130619192</v>
       </c>
       <c r="S12" t="n">
-        <v>2346.762917934842</v>
+        <v>2346.762917934841</v>
       </c>
       <c r="T12" t="n">
-        <v>2158.909856151447</v>
+        <v>2158.909856151446</v>
       </c>
       <c r="U12" t="n">
-        <v>1940.428644414348</v>
+        <v>1940.428644414347</v>
       </c>
       <c r="V12" t="n">
-        <v>1712.033021862682</v>
+        <v>1712.033021862681</v>
       </c>
       <c r="W12" t="n">
-        <v>1470.717153095992</v>
+        <v>1470.717153095991</v>
       </c>
       <c r="X12" t="n">
         <v>1272.800164973786</v>
@@ -5173,43 +5173,43 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.6147897486584</v>
+        <v>252.0753483514625</v>
       </c>
       <c r="C13" t="n">
-        <v>179.6147897486584</v>
+        <v>252.0753483514625</v>
       </c>
       <c r="D13" t="n">
-        <v>179.6147897486584</v>
+        <v>188.4956814432875</v>
       </c>
       <c r="E13" t="n">
-        <v>179.6147897486584</v>
+        <v>125.9788934686688</v>
       </c>
       <c r="F13" t="n">
-        <v>179.6147897486584</v>
+        <v>125.9788934686688</v>
       </c>
       <c r="G13" t="n">
-        <v>100.3603280900061</v>
+        <v>100.360328090006</v>
       </c>
       <c r="H13" t="n">
-        <v>100.3603280900061</v>
+        <v>100.360328090006</v>
       </c>
       <c r="I13" t="n">
-        <v>50.85391747321462</v>
+        <v>50.85391747321461</v>
       </c>
       <c r="J13" t="n">
-        <v>91.69505674979141</v>
+        <v>91.69505674979143</v>
       </c>
       <c r="K13" t="n">
-        <v>232.7169638270793</v>
+        <v>232.7169638270794</v>
       </c>
       <c r="L13" t="n">
         <v>446.252766631877</v>
       </c>
       <c r="M13" t="n">
-        <v>678.5458083128455</v>
+        <v>678.5458083128453</v>
       </c>
       <c r="N13" t="n">
-        <v>910.6354775381751</v>
+        <v>910.635477538175</v>
       </c>
       <c r="O13" t="n">
         <v>1120.785018876023</v>
@@ -5230,19 +5230,19 @@
         <v>1091.974345703515</v>
       </c>
       <c r="U13" t="n">
-        <v>894.2857721317374</v>
+        <v>894.2857721317378</v>
       </c>
       <c r="V13" t="n">
-        <v>744.6452777717362</v>
+        <v>723.0426939542228</v>
       </c>
       <c r="W13" t="n">
-        <v>547.9811025531978</v>
+        <v>526.3785187356846</v>
       </c>
       <c r="X13" t="n">
-        <v>406.2208647126362</v>
+        <v>384.6182808951229</v>
       </c>
       <c r="Y13" t="n">
-        <v>273.6779321689758</v>
+        <v>252.0753483514625</v>
       </c>
     </row>
     <row r="14">
@@ -5252,31 +5252,31 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1582.80559755747</v>
+        <v>1314.861271369833</v>
       </c>
       <c r="C14" t="n">
-        <v>1290.36406515434</v>
+        <v>1314.861271369833</v>
       </c>
       <c r="D14" t="n">
-        <v>1007.032326645626</v>
+        <v>1314.861271369833</v>
       </c>
       <c r="E14" t="n">
-        <v>701.7388330157959</v>
+        <v>1009.567777740002</v>
       </c>
       <c r="F14" t="n">
-        <v>377.0798685900288</v>
+        <v>684.908813314235</v>
       </c>
       <c r="G14" t="n">
-        <v>50.85391747321462</v>
+        <v>358.6828621974208</v>
       </c>
       <c r="H14" t="n">
-        <v>50.85391747321462</v>
+        <v>119.3049821691865</v>
       </c>
       <c r="I14" t="n">
         <v>50.85391747321462</v>
       </c>
       <c r="J14" t="n">
-        <v>154.9459054532635</v>
+        <v>154.9459054532634</v>
       </c>
       <c r="K14" t="n">
         <v>443.1860302481634</v>
@@ -5303,25 +5303,25 @@
         <v>2542.695873660731</v>
       </c>
       <c r="S14" t="n">
-        <v>2453.750750901111</v>
+        <v>2542.695873660731</v>
       </c>
       <c r="T14" t="n">
-        <v>2453.750750901111</v>
+        <v>2542.695873660731</v>
       </c>
       <c r="U14" t="n">
-        <v>2288.388505612363</v>
+        <v>2489.04283187667</v>
       </c>
       <c r="V14" t="n">
-        <v>2191.406539971526</v>
+        <v>2489.04283187667</v>
       </c>
       <c r="W14" t="n">
-        <v>2191.406539971526</v>
+        <v>2216.000127998333</v>
       </c>
       <c r="X14" t="n">
-        <v>2191.406539971526</v>
+        <v>1923.462213783889</v>
       </c>
       <c r="Y14" t="n">
-        <v>1887.356910811427</v>
+        <v>1619.412584623789</v>
       </c>
     </row>
     <row r="15">
@@ -5331,19 +5331,19 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>920.8593958421039</v>
+        <v>920.8593958421045</v>
       </c>
       <c r="C15" t="n">
-        <v>759.1557230830587</v>
+        <v>759.1557230830592</v>
       </c>
       <c r="D15" t="n">
-        <v>620.3170860732707</v>
+        <v>620.3170860732713</v>
       </c>
       <c r="E15" t="n">
-        <v>473.2890761301419</v>
+        <v>473.2890761301425</v>
       </c>
       <c r="F15" t="n">
-        <v>338.5952780800163</v>
+        <v>338.5952780800169</v>
       </c>
       <c r="G15" t="n">
         <v>210.0732042050868</v>
@@ -5361,7 +5361,7 @@
         <v>392.3832078845233</v>
       </c>
       <c r="L15" t="n">
-        <v>477.85065097758</v>
+        <v>802.1338407649491</v>
       </c>
       <c r="M15" t="n">
         <v>1014.14682775868</v>
@@ -5382,19 +5382,19 @@
         <v>2495.728130619192</v>
       </c>
       <c r="S15" t="n">
-        <v>2346.762917934841</v>
+        <v>2346.762917934842</v>
       </c>
       <c r="T15" t="n">
-        <v>2158.909856151446</v>
+        <v>2158.909856151447</v>
       </c>
       <c r="U15" t="n">
-        <v>1940.428644414347</v>
+        <v>1940.428644414348</v>
       </c>
       <c r="V15" t="n">
-        <v>1712.033021862681</v>
+        <v>1712.033021862682</v>
       </c>
       <c r="W15" t="n">
-        <v>1470.717153095991</v>
+        <v>1470.717153095992</v>
       </c>
       <c r="X15" t="n">
         <v>1272.800164973786</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>454.1767398275767</v>
+        <v>437.0414252634806</v>
       </c>
       <c r="C16" t="n">
-        <v>374.0529965533196</v>
+        <v>437.0414252634806</v>
       </c>
       <c r="D16" t="n">
-        <v>310.4733296451449</v>
+        <v>373.4617583553055</v>
       </c>
       <c r="E16" t="n">
-        <v>247.9565416705262</v>
+        <v>310.9449703806868</v>
       </c>
       <c r="F16" t="n">
-        <v>247.9565416705262</v>
+        <v>247.9565416705263</v>
       </c>
       <c r="G16" t="n">
         <v>168.7020800118739</v>
       </c>
       <c r="H16" t="n">
-        <v>100.360328090006</v>
+        <v>100.3603280900061</v>
       </c>
       <c r="I16" t="n">
         <v>50.85391747321462</v>
       </c>
       <c r="J16" t="n">
-        <v>91.69505674979143</v>
+        <v>91.69505674979132</v>
       </c>
       <c r="K16" t="n">
-        <v>232.7169638270794</v>
+        <v>232.7169638270792</v>
       </c>
       <c r="L16" t="n">
-        <v>446.2527666318771</v>
+        <v>446.2527666318767</v>
       </c>
       <c r="M16" t="n">
-        <v>678.5458083128453</v>
+        <v>678.5458083128451</v>
       </c>
       <c r="N16" t="n">
-        <v>910.635477538175</v>
+        <v>910.6354775381747</v>
       </c>
       <c r="O16" t="n">
-        <v>1120.785018876023</v>
+        <v>1120.785018876022</v>
       </c>
       <c r="P16" t="n">
         <v>1291.979214699444</v>
       </c>
       <c r="Q16" t="n">
-        <v>1356.123191561281</v>
+        <v>1356.12319156128</v>
       </c>
       <c r="R16" t="n">
         <v>1303.875075247596</v>
       </c>
       <c r="S16" t="n">
-        <v>1182.673515097048</v>
+        <v>1303.875075247596</v>
       </c>
       <c r="T16" t="n">
-        <v>1152.315499339068</v>
+        <v>1160.927789540378</v>
       </c>
       <c r="U16" t="n">
-        <v>954.6269257672902</v>
+        <v>963.2392159686009</v>
       </c>
       <c r="V16" t="n">
-        <v>783.3838475897753</v>
+        <v>791.996137791086</v>
       </c>
       <c r="W16" t="n">
-        <v>586.719672371237</v>
+        <v>595.3319625725476</v>
       </c>
       <c r="X16" t="n">
-        <v>586.719672371237</v>
+        <v>453.5717247319857</v>
       </c>
       <c r="Y16" t="n">
-        <v>454.1767398275767</v>
+        <v>437.0414252634806</v>
       </c>
     </row>
     <row r="17">
@@ -5495,13 +5495,13 @@
         <v>1140.941437787719</v>
       </c>
       <c r="D17" t="n">
-        <v>935.3698007579762</v>
+        <v>935.3698007579765</v>
       </c>
       <c r="E17" t="n">
-        <v>707.8364086071168</v>
+        <v>707.8364086071171</v>
       </c>
       <c r="F17" t="n">
-        <v>460.9375456603209</v>
+        <v>460.9375456603211</v>
       </c>
       <c r="G17" t="n">
         <v>212.4716960224776</v>
@@ -5540,25 +5540,25 @@
         <v>2542.695873660731</v>
       </c>
       <c r="S17" t="n">
-        <v>2531.510852380082</v>
+        <v>2531.510852380083</v>
       </c>
       <c r="T17" t="n">
         <v>2476.093113473632</v>
       </c>
       <c r="U17" t="n">
-        <v>2388.490969663854</v>
+        <v>2388.490969663855</v>
       </c>
       <c r="V17" t="n">
-        <v>2218.764023302829</v>
+        <v>2218.76402330283</v>
       </c>
       <c r="W17" t="n">
-        <v>2023.481420903464</v>
+        <v>2023.481420903465</v>
       </c>
       <c r="X17" t="n">
-        <v>1808.703608167991</v>
+        <v>1808.703608167992</v>
       </c>
       <c r="Y17" t="n">
-        <v>1582.414080486863</v>
+        <v>1582.414080486864</v>
       </c>
     </row>
     <row r="18">
@@ -5604,7 +5604,7 @@
         <v>1259.061235803009</v>
       </c>
       <c r="N18" t="n">
-        <v>1822.946479591694</v>
+        <v>1578.032071547365</v>
       </c>
       <c r="O18" t="n">
         <v>2018.368674122672</v>
@@ -5619,7 +5619,7 @@
         <v>2495.728130619192</v>
       </c>
       <c r="S18" t="n">
-        <v>2346.762917934842</v>
+        <v>2346.762917934841</v>
       </c>
       <c r="T18" t="n">
         <v>2158.909856151446</v>
@@ -5659,7 +5659,7 @@
         <v>146.4762740607688</v>
       </c>
       <c r="F19" t="n">
-        <v>52.34827765289574</v>
+        <v>146.4762740607688</v>
       </c>
       <c r="G19" t="n">
         <v>50.85391747321462</v>
@@ -5726,19 +5726,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1355.622868711877</v>
+        <v>1355.622868711878</v>
       </c>
       <c r="C20" t="n">
         <v>1140.941437787719</v>
       </c>
       <c r="D20" t="n">
-        <v>935.3698007579758</v>
+        <v>935.3698007579761</v>
       </c>
       <c r="E20" t="n">
-        <v>707.8364086071164</v>
+        <v>707.8364086071167</v>
       </c>
       <c r="F20" t="n">
-        <v>460.9375456603204</v>
+        <v>460.9375456603209</v>
       </c>
       <c r="G20" t="n">
         <v>212.4716960224776</v>
@@ -5777,7 +5777,7 @@
         <v>2542.695873660731</v>
       </c>
       <c r="S20" t="n">
-        <v>2531.510852380082</v>
+        <v>2531.510852380083</v>
       </c>
       <c r="T20" t="n">
         <v>2476.093113473632</v>
@@ -5805,19 +5805,19 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>920.8593958421039</v>
+        <v>920.8593958421045</v>
       </c>
       <c r="C21" t="n">
-        <v>759.1557230830587</v>
+        <v>759.1557230830592</v>
       </c>
       <c r="D21" t="n">
-        <v>620.3170860732707</v>
+        <v>620.3170860732713</v>
       </c>
       <c r="E21" t="n">
-        <v>473.2890761301419</v>
+        <v>473.2890761301425</v>
       </c>
       <c r="F21" t="n">
-        <v>338.5952780800163</v>
+        <v>338.5952780800169</v>
       </c>
       <c r="G21" t="n">
         <v>210.0732042050868</v>
@@ -5838,7 +5838,7 @@
         <v>802.1338407649491</v>
       </c>
       <c r="M21" t="n">
-        <v>1338.430017546049</v>
+        <v>1014.14682775868</v>
       </c>
       <c r="N21" t="n">
         <v>1578.032071547365</v>
@@ -5862,13 +5862,13 @@
         <v>2158.909856151447</v>
       </c>
       <c r="U21" t="n">
-        <v>1940.428644414347</v>
+        <v>1940.428644414348</v>
       </c>
       <c r="V21" t="n">
-        <v>1712.033021862681</v>
+        <v>1712.033021862682</v>
       </c>
       <c r="W21" t="n">
-        <v>1470.717153095991</v>
+        <v>1470.717153095992</v>
       </c>
       <c r="X21" t="n">
         <v>1272.800164973786</v>
@@ -5935,25 +5935,25 @@
         <v>724.8700896544216</v>
       </c>
       <c r="S22" t="n">
-        <v>681.4286309828442</v>
+        <v>587.300634574971</v>
       </c>
       <c r="T22" t="n">
-        <v>616.2414467545977</v>
+        <v>522.1134503467246</v>
       </c>
       <c r="U22" t="n">
-        <v>496.3129746617914</v>
+        <v>402.1849782539183</v>
       </c>
       <c r="V22" t="n">
-        <v>402.8299979632478</v>
+        <v>308.7020015553746</v>
       </c>
       <c r="W22" t="n">
-        <v>283.9259242236806</v>
+        <v>189.7979278158075</v>
       </c>
       <c r="X22" t="n">
-        <v>219.9257878620901</v>
+        <v>125.797791454217</v>
       </c>
       <c r="Y22" t="n">
-        <v>165.1429567974009</v>
+        <v>71.0149603895278</v>
       </c>
     </row>
     <row r="23">
@@ -5969,7 +5969,7 @@
         <v>1140.941437787719</v>
       </c>
       <c r="D23" t="n">
-        <v>935.3698007579758</v>
+        <v>935.3698007579759</v>
       </c>
       <c r="E23" t="n">
         <v>707.8364086071165</v>
@@ -5987,7 +5987,7 @@
         <v>50.85391747321462</v>
       </c>
       <c r="J23" t="n">
-        <v>154.9459054532636</v>
+        <v>154.9459054532635</v>
       </c>
       <c r="K23" t="n">
         <v>443.1860302481634</v>
@@ -6042,7 +6042,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>920.8593958421045</v>
+        <v>920.8593958421039</v>
       </c>
       <c r="C24" t="n">
         <v>759.1557230830587</v>
@@ -6066,16 +6066,16 @@
         <v>50.85391747321462</v>
       </c>
       <c r="J24" t="n">
-        <v>130.2226992162549</v>
+        <v>50.85391747321462</v>
       </c>
       <c r="K24" t="n">
-        <v>392.3832078845233</v>
+        <v>68.10001809715425</v>
       </c>
       <c r="L24" t="n">
-        <v>802.1338407649491</v>
+        <v>477.85065097758</v>
       </c>
       <c r="M24" t="n">
-        <v>1338.430017546049</v>
+        <v>1014.14682775868</v>
       </c>
       <c r="N24" t="n">
         <v>1578.032071547365</v>
@@ -6093,19 +6093,19 @@
         <v>2495.728130619192</v>
       </c>
       <c r="S24" t="n">
-        <v>2346.762917934842</v>
+        <v>2346.762917934841</v>
       </c>
       <c r="T24" t="n">
-        <v>2158.909856151447</v>
+        <v>2158.909856151446</v>
       </c>
       <c r="U24" t="n">
-        <v>1940.428644414348</v>
+        <v>1940.428644414347</v>
       </c>
       <c r="V24" t="n">
-        <v>1712.033021862682</v>
+        <v>1712.033021862681</v>
       </c>
       <c r="W24" t="n">
-        <v>1470.717153095992</v>
+        <v>1470.717153095991</v>
       </c>
       <c r="X24" t="n">
         <v>1272.800164973786</v>
@@ -6121,13 +6121,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>148.8399158560548</v>
+        <v>54.71191944818171</v>
       </c>
       <c r="C25" t="n">
-        <v>146.4762740607688</v>
+        <v>52.34827765289574</v>
       </c>
       <c r="D25" t="n">
-        <v>146.4762740607688</v>
+        <v>52.34827765289574</v>
       </c>
       <c r="E25" t="n">
         <v>52.34827765289574</v>
@@ -6175,22 +6175,22 @@
         <v>681.4286309828442</v>
       </c>
       <c r="T25" t="n">
-        <v>616.2414467545977</v>
+        <v>522.1134503467246</v>
       </c>
       <c r="U25" t="n">
-        <v>496.3129746617914</v>
+        <v>402.1849782539183</v>
       </c>
       <c r="V25" t="n">
-        <v>402.8299979632478</v>
+        <v>308.7020015553746</v>
       </c>
       <c r="W25" t="n">
-        <v>283.9259242236806</v>
+        <v>189.7979278158075</v>
       </c>
       <c r="X25" t="n">
-        <v>219.9257878620901</v>
+        <v>125.797791454217</v>
       </c>
       <c r="Y25" t="n">
-        <v>165.1429567974009</v>
+        <v>71.0149603895278</v>
       </c>
     </row>
     <row r="26">
@@ -6203,19 +6203,19 @@
         <v>1781.512829068193</v>
       </c>
       <c r="C26" t="n">
-        <v>1507.23905206412</v>
+        <v>1507.239052064119</v>
       </c>
       <c r="D26" t="n">
         <v>1242.075068954462</v>
       </c>
       <c r="E26" t="n">
-        <v>954.9493307236885</v>
+        <v>954.9493307236876</v>
       </c>
       <c r="F26" t="n">
-        <v>648.458121696978</v>
+        <v>648.4581216969773</v>
       </c>
       <c r="G26" t="n">
-        <v>340.3999259792204</v>
+        <v>340.3999259792203</v>
       </c>
       <c r="H26" t="n">
         <v>119.1898013500426</v>
@@ -6224,16 +6224,16 @@
         <v>68.90649205312728</v>
       </c>
       <c r="J26" t="n">
-        <v>278.5160280611993</v>
+        <v>278.516028061199</v>
       </c>
       <c r="K26" t="n">
-        <v>672.2737008841221</v>
+        <v>672.2737008841218</v>
       </c>
       <c r="L26" t="n">
         <v>1185.348618554693</v>
       </c>
       <c r="M26" t="n">
-        <v>1750.50192656896</v>
+        <v>1750.501926568961</v>
       </c>
       <c r="N26" t="n">
         <v>2301.82179331996</v>
@@ -6260,7 +6260,7 @@
         <v>3112.342660419743</v>
       </c>
       <c r="V26" t="n">
-        <v>2883.023367978803</v>
+        <v>2883.023367978804</v>
       </c>
       <c r="W26" t="n">
         <v>2628.148419499524</v>
@@ -6315,13 +6315,13 @@
         <v>1356.482592125962</v>
       </c>
       <c r="N27" t="n">
-        <v>1596.084646127277</v>
+        <v>1920.367835914647</v>
       </c>
       <c r="O27" t="n">
-        <v>2036.421248702585</v>
+        <v>2360.704438489954</v>
       </c>
       <c r="P27" t="n">
-        <v>2377.151074842871</v>
+        <v>2560.748448240643</v>
       </c>
       <c r="Q27" t="n">
         <v>2560.748448240643</v>
@@ -6358,22 +6358,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>408.0434553242537</v>
+        <v>408.0434553242541</v>
       </c>
       <c r="C28" t="n">
-        <v>346.0874674490531</v>
+        <v>346.0874674490534</v>
       </c>
       <c r="D28" t="n">
-        <v>300.6755559399349</v>
+        <v>300.6755559399352</v>
       </c>
       <c r="E28" t="n">
-        <v>256.3265233643728</v>
+        <v>256.326523364373</v>
       </c>
       <c r="F28" t="n">
-        <v>211.505850053269</v>
+        <v>211.5058500532692</v>
       </c>
       <c r="G28" t="n">
-        <v>150.4191437936732</v>
+        <v>150.4191437936734</v>
       </c>
       <c r="H28" t="n">
         <v>100.2451472708622</v>
@@ -6382,28 +6382,28 @@
         <v>68.90649205312728</v>
       </c>
       <c r="J28" t="n">
-        <v>105.8211043987687</v>
+        <v>127.5538483963194</v>
       </c>
       <c r="K28" t="n">
-        <v>264.6492285426719</v>
+        <v>286.3819725402226</v>
       </c>
       <c r="L28" t="n">
-        <v>495.9912484140849</v>
+        <v>517.7239924116355</v>
       </c>
       <c r="M28" t="n">
-        <v>746.0905071616687</v>
+        <v>767.8232511592194</v>
       </c>
       <c r="N28" t="n">
-        <v>995.9863934536137</v>
+        <v>995.9863934536149</v>
       </c>
       <c r="O28" t="n">
-        <v>1223.942151858077</v>
+        <v>1223.942151858078</v>
       </c>
       <c r="P28" t="n">
-        <v>1412.942564748114</v>
+        <v>1412.942564748115</v>
       </c>
       <c r="Q28" t="n">
-        <v>1494.892758676566</v>
+        <v>1494.892758676567</v>
       </c>
       <c r="R28" t="n">
         <v>1460.812397761938</v>
@@ -6412,22 +6412,22 @@
         <v>1357.778593010446</v>
       </c>
       <c r="T28" t="n">
-        <v>1232.999062702284</v>
+        <v>1232.999062702285</v>
       </c>
       <c r="U28" t="n">
-        <v>1053.478244529563</v>
+        <v>1053.478244529564</v>
       </c>
       <c r="V28" t="n">
-        <v>900.4029217511052</v>
+        <v>900.4029217511059</v>
       </c>
       <c r="W28" t="n">
-        <v>721.9065019316233</v>
+        <v>721.906501931624</v>
       </c>
       <c r="X28" t="n">
-        <v>598.3140194901182</v>
+        <v>598.3140194901188</v>
       </c>
       <c r="Y28" t="n">
-        <v>483.9388423455144</v>
+        <v>483.9388423455148</v>
       </c>
     </row>
     <row r="29">
@@ -6437,76 +6437,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1781.512829068193</v>
+        <v>1781.512829068194</v>
       </c>
       <c r="C29" t="n">
         <v>1507.23905206412</v>
       </c>
       <c r="D29" t="n">
-        <v>1242.075068954462</v>
+        <v>1242.075068954463</v>
       </c>
       <c r="E29" t="n">
-        <v>954.9493307236885</v>
+        <v>954.9493307236889</v>
       </c>
       <c r="F29" t="n">
-        <v>648.458121696978</v>
+        <v>648.4581216969784</v>
       </c>
       <c r="G29" t="n">
-        <v>340.3999259792204</v>
+        <v>340.3999259792208</v>
       </c>
       <c r="H29" t="n">
-        <v>119.1898013500426</v>
+        <v>119.1898013500425</v>
       </c>
       <c r="I29" t="n">
-        <v>68.90649205312728</v>
+        <v>68.90649205312727</v>
       </c>
       <c r="J29" t="n">
-        <v>278.5160280611994</v>
+        <v>278.5160280611993</v>
       </c>
       <c r="K29" t="n">
-        <v>672.2737008841223</v>
+        <v>672.2737008841221</v>
       </c>
       <c r="L29" t="n">
-        <v>1185.348618554694</v>
+        <v>1185.348618554693</v>
       </c>
       <c r="M29" t="n">
-        <v>1750.501926568961</v>
+        <v>1750.50192656896</v>
       </c>
       <c r="N29" t="n">
-        <v>2301.82179331996</v>
+        <v>2301.821793319959</v>
       </c>
       <c r="O29" t="n">
-        <v>2776.05484013094</v>
+        <v>2776.054840130939</v>
       </c>
       <c r="P29" t="n">
-        <v>3164.105075974609</v>
+        <v>3164.105075974608</v>
       </c>
       <c r="Q29" t="n">
-        <v>3404.888832464828</v>
+        <v>3404.888832464827</v>
       </c>
       <c r="R29" t="n">
-        <v>3445.324602656364</v>
+        <v>3445.324602656363</v>
       </c>
       <c r="S29" t="n">
-        <v>3374.547235295801</v>
+        <v>3374.5472352958</v>
       </c>
       <c r="T29" t="n">
         <v>3259.537150309436</v>
       </c>
       <c r="U29" t="n">
-        <v>3112.342660419743</v>
+        <v>3112.342660419744</v>
       </c>
       <c r="V29" t="n">
         <v>2883.023367978804</v>
       </c>
       <c r="W29" t="n">
-        <v>2628.148419499524</v>
+        <v>2628.148419499525</v>
       </c>
       <c r="X29" t="n">
-        <v>2353.778260684136</v>
+        <v>2353.778260684137</v>
       </c>
       <c r="Y29" t="n">
-        <v>2067.896386923093</v>
+        <v>2067.896386923094</v>
       </c>
     </row>
     <row r="30">
@@ -6537,7 +6537,7 @@
         <v>130.1815628936826</v>
       </c>
       <c r="I30" t="n">
-        <v>68.90649205312728</v>
+        <v>68.90649205312727</v>
       </c>
       <c r="J30" t="n">
         <v>148.2752737961676</v>
@@ -6595,58 +6595,58 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>408.0434553242537</v>
+        <v>408.0434553242535</v>
       </c>
       <c r="C31" t="n">
-        <v>346.0874674490531</v>
+        <v>346.0874674490529</v>
       </c>
       <c r="D31" t="n">
-        <v>300.6755559399349</v>
+        <v>300.6755559399347</v>
       </c>
       <c r="E31" t="n">
-        <v>256.3265233643728</v>
+        <v>256.3265233643727</v>
       </c>
       <c r="F31" t="n">
-        <v>211.505850053269</v>
+        <v>211.5058500532689</v>
       </c>
       <c r="G31" t="n">
         <v>150.4191437936732</v>
       </c>
       <c r="H31" t="n">
-        <v>100.2451472708622</v>
+        <v>100.2451472708621</v>
       </c>
       <c r="I31" t="n">
-        <v>68.90649205312728</v>
+        <v>68.90649205312727</v>
       </c>
       <c r="J31" t="n">
-        <v>127.5538483963194</v>
+        <v>105.8211043987678</v>
       </c>
       <c r="K31" t="n">
-        <v>286.3819725402227</v>
+        <v>264.6492285426712</v>
       </c>
       <c r="L31" t="n">
-        <v>517.7239924116357</v>
+        <v>495.9912484140842</v>
       </c>
       <c r="M31" t="n">
-        <v>767.8232511592195</v>
+        <v>746.090507161668</v>
       </c>
       <c r="N31" t="n">
-        <v>995.9863934536137</v>
+        <v>995.986393453613</v>
       </c>
       <c r="O31" t="n">
-        <v>1223.942151858077</v>
+        <v>1223.942151858076</v>
       </c>
       <c r="P31" t="n">
-        <v>1412.942564748114</v>
+        <v>1412.942564748113</v>
       </c>
       <c r="Q31" t="n">
-        <v>1494.892758676566</v>
+        <v>1494.892758676565</v>
       </c>
       <c r="R31" t="n">
-        <v>1460.812397761938</v>
+        <v>1460.812397761937</v>
       </c>
       <c r="S31" t="n">
-        <v>1357.778593010446</v>
+        <v>1357.778593010445</v>
       </c>
       <c r="T31" t="n">
         <v>1232.999062702284</v>
@@ -6655,16 +6655,16 @@
         <v>1053.478244529563</v>
       </c>
       <c r="V31" t="n">
-        <v>900.4029217511052</v>
+        <v>900.4029217511049</v>
       </c>
       <c r="W31" t="n">
-        <v>721.9065019316233</v>
+        <v>721.9065019316231</v>
       </c>
       <c r="X31" t="n">
-        <v>598.3140194901182</v>
+        <v>598.314019490118</v>
       </c>
       <c r="Y31" t="n">
-        <v>483.9388423455144</v>
+        <v>483.9388423455142</v>
       </c>
     </row>
     <row r="32">
@@ -6680,61 +6680,61 @@
         <v>1140.941437787719</v>
       </c>
       <c r="D32" t="n">
-        <v>935.3698007579758</v>
+        <v>935.369800757976</v>
       </c>
       <c r="E32" t="n">
-        <v>707.8364086071164</v>
+        <v>707.8364086071166</v>
       </c>
       <c r="F32" t="n">
-        <v>460.9375456603204</v>
+        <v>460.9375456603207</v>
       </c>
       <c r="G32" t="n">
-        <v>212.4716960224775</v>
+        <v>212.4716960224776</v>
       </c>
       <c r="H32" t="n">
-        <v>50.85391747321459</v>
+        <v>50.85391747321462</v>
       </c>
       <c r="I32" t="n">
-        <v>50.85391747321347</v>
+        <v>50.85391747321462</v>
       </c>
       <c r="J32" t="n">
-        <v>154.9459054532624</v>
+        <v>154.9459054532635</v>
       </c>
       <c r="K32" t="n">
-        <v>443.1860302481622</v>
+        <v>443.1860302481634</v>
       </c>
       <c r="L32" t="n">
-        <v>850.7433998907107</v>
+        <v>850.7433998907119</v>
       </c>
       <c r="M32" t="n">
-        <v>1310.379159876955</v>
+        <v>1310.379159876956</v>
       </c>
       <c r="N32" t="n">
-        <v>1756.181478599931</v>
+        <v>1756.181478599932</v>
       </c>
       <c r="O32" t="n">
-        <v>2124.896977382888</v>
+        <v>2124.896977382889</v>
       </c>
       <c r="P32" t="n">
-        <v>2407.429665198534</v>
+        <v>2407.429665198535</v>
       </c>
       <c r="Q32" t="n">
-        <v>2542.695873660729</v>
+        <v>2542.695873660731</v>
       </c>
       <c r="R32" t="n">
-        <v>2542.695873660729</v>
+        <v>2542.695873660731</v>
       </c>
       <c r="S32" t="n">
-        <v>2531.510852380082</v>
+        <v>2531.510852380083</v>
       </c>
       <c r="T32" t="n">
-        <v>2476.093113473631</v>
+        <v>2476.093113473632</v>
       </c>
       <c r="U32" t="n">
-        <v>2388.490969663854</v>
+        <v>2388.490969663855</v>
       </c>
       <c r="V32" t="n">
-        <v>2218.764023302829</v>
+        <v>2218.76402330283</v>
       </c>
       <c r="W32" t="n">
         <v>2023.481420903464</v>
@@ -6765,37 +6765,37 @@
         <v>473.2890761301419</v>
       </c>
       <c r="F33" t="n">
-        <v>338.5952780800162</v>
+        <v>338.5952780800163</v>
       </c>
       <c r="G33" t="n">
-        <v>210.0732042050867</v>
+        <v>210.0732042050868</v>
       </c>
       <c r="H33" t="n">
         <v>112.1289883137699</v>
       </c>
       <c r="I33" t="n">
-        <v>50.85391747321459</v>
+        <v>50.85391747321462</v>
       </c>
       <c r="J33" t="n">
         <v>130.2226992162549</v>
       </c>
       <c r="K33" t="n">
-        <v>392.3832078845232</v>
+        <v>392.3832078845233</v>
       </c>
       <c r="L33" t="n">
-        <v>802.133840764949</v>
+        <v>802.1338407649491</v>
       </c>
       <c r="M33" t="n">
         <v>1338.430017546049</v>
       </c>
       <c r="N33" t="n">
-        <v>1578.032071547365</v>
+        <v>1761.629444945137</v>
       </c>
       <c r="O33" t="n">
-        <v>2018.368674122672</v>
+        <v>2201.966047520444</v>
       </c>
       <c r="P33" t="n">
-        <v>2359.098500262958</v>
+        <v>2542.69587366073</v>
       </c>
       <c r="Q33" t="n">
         <v>2542.69587366073</v>
@@ -6832,37 +6832,37 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>54.71191944818163</v>
+        <v>54.71191944818171</v>
       </c>
       <c r="C34" t="n">
-        <v>52.34827765289568</v>
+        <v>52.34827765289574</v>
       </c>
       <c r="D34" t="n">
-        <v>52.34827765289568</v>
+        <v>52.34827765289574</v>
       </c>
       <c r="E34" t="n">
-        <v>52.34827765289568</v>
+        <v>52.34827765289574</v>
       </c>
       <c r="F34" t="n">
-        <v>52.34827765289568</v>
+        <v>52.34827765289574</v>
       </c>
       <c r="G34" t="n">
-        <v>50.85391747321459</v>
+        <v>50.85391747321462</v>
       </c>
       <c r="H34" t="n">
-        <v>50.85391747321459</v>
+        <v>50.85391747321462</v>
       </c>
       <c r="I34" t="n">
-        <v>50.85391747321459</v>
+        <v>50.85391747321462</v>
       </c>
       <c r="J34" t="n">
-        <v>50.85391747321459</v>
+        <v>50.85391747321462</v>
       </c>
       <c r="K34" t="n">
-        <v>104.1644935890948</v>
+        <v>104.1644935890949</v>
       </c>
       <c r="L34" t="n">
-        <v>229.9889654324848</v>
+        <v>229.9889654324849</v>
       </c>
       <c r="M34" t="n">
         <v>374.5706761520456</v>
@@ -6883,25 +6883,25 @@
         <v>724.8700896544216</v>
       </c>
       <c r="S34" t="n">
-        <v>681.4286309828443</v>
+        <v>587.300634574971</v>
       </c>
       <c r="T34" t="n">
-        <v>616.241446754598</v>
+        <v>522.1134503467246</v>
       </c>
       <c r="U34" t="n">
-        <v>496.3129746617917</v>
+        <v>402.1849782539183</v>
       </c>
       <c r="V34" t="n">
-        <v>402.829997963248</v>
+        <v>308.7020015553746</v>
       </c>
       <c r="W34" t="n">
-        <v>283.9259242236809</v>
+        <v>189.7979278158075</v>
       </c>
       <c r="X34" t="n">
-        <v>219.9257878620904</v>
+        <v>125.797791454217</v>
       </c>
       <c r="Y34" t="n">
-        <v>165.1429567974013</v>
+        <v>71.0149603895278</v>
       </c>
     </row>
     <row r="35">
@@ -6929,25 +6929,25 @@
         <v>212.4716960224776</v>
       </c>
       <c r="H35" t="n">
-        <v>50.85391747321461</v>
+        <v>50.85391747321462</v>
       </c>
       <c r="I35" t="n">
-        <v>50.85391747321438</v>
+        <v>50.85391747321484</v>
       </c>
       <c r="J35" t="n">
-        <v>154.9459054532633</v>
+        <v>154.9459054532638</v>
       </c>
       <c r="K35" t="n">
-        <v>443.1860302481631</v>
+        <v>443.1860302481636</v>
       </c>
       <c r="L35" t="n">
-        <v>850.7433998907117</v>
+        <v>850.7433998907121</v>
       </c>
       <c r="M35" t="n">
         <v>1310.379159876956</v>
       </c>
       <c r="N35" t="n">
-        <v>1756.181478599932</v>
+        <v>1756.181478599933</v>
       </c>
       <c r="O35" t="n">
         <v>2124.896977382889</v>
@@ -6956,10 +6956,10 @@
         <v>2407.429665198535</v>
       </c>
       <c r="Q35" t="n">
-        <v>2542.69587366073</v>
+        <v>2542.695873660731</v>
       </c>
       <c r="R35" t="n">
-        <v>2542.69587366073</v>
+        <v>2542.695873660731</v>
       </c>
       <c r="S35" t="n">
         <v>2531.510852380082</v>
@@ -6968,10 +6968,10 @@
         <v>2476.093113473632</v>
       </c>
       <c r="U35" t="n">
-        <v>2388.490969663854</v>
+        <v>2388.490969663855</v>
       </c>
       <c r="V35" t="n">
-        <v>2218.764023302829</v>
+        <v>2218.76402330283</v>
       </c>
       <c r="W35" t="n">
         <v>2023.481420903464</v>
@@ -7011,7 +7011,7 @@
         <v>112.1289883137699</v>
       </c>
       <c r="I36" t="n">
-        <v>50.85391747321461</v>
+        <v>50.85391747321462</v>
       </c>
       <c r="J36" t="n">
         <v>130.2226992162549</v>
@@ -7023,7 +7023,7 @@
         <v>802.1338407649491</v>
       </c>
       <c r="M36" t="n">
-        <v>1338.430017546049</v>
+        <v>1014.14682775868</v>
       </c>
       <c r="N36" t="n">
         <v>1578.032071547365</v>
@@ -7032,10 +7032,10 @@
         <v>2018.368674122672</v>
       </c>
       <c r="P36" t="n">
-        <v>2359.098500262958</v>
+        <v>2359.098500262959</v>
       </c>
       <c r="Q36" t="n">
-        <v>2542.69587366073</v>
+        <v>2542.695873660731</v>
       </c>
       <c r="R36" t="n">
         <v>2495.728130619192</v>
@@ -7069,31 +7069,31 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>54.71191944818165</v>
+        <v>54.71191944818171</v>
       </c>
       <c r="C37" t="n">
-        <v>52.3482776528957</v>
+        <v>52.34827765289574</v>
       </c>
       <c r="D37" t="n">
-        <v>52.3482776528957</v>
+        <v>52.34827765289574</v>
       </c>
       <c r="E37" t="n">
-        <v>52.3482776528957</v>
+        <v>52.34827765289574</v>
       </c>
       <c r="F37" t="n">
-        <v>52.3482776528957</v>
+        <v>52.34827765289574</v>
       </c>
       <c r="G37" t="n">
-        <v>50.85391747321461</v>
+        <v>50.85391747321462</v>
       </c>
       <c r="H37" t="n">
-        <v>50.85391747321461</v>
+        <v>50.85391747321462</v>
       </c>
       <c r="I37" t="n">
-        <v>50.85391747321461</v>
+        <v>50.85391747321462</v>
       </c>
       <c r="J37" t="n">
-        <v>50.85391747321461</v>
+        <v>50.85391747321462</v>
       </c>
       <c r="K37" t="n">
         <v>104.1644935890949</v>
@@ -7120,25 +7120,25 @@
         <v>724.8700896544216</v>
       </c>
       <c r="S37" t="n">
-        <v>681.4286309828443</v>
+        <v>681.4286309828442</v>
       </c>
       <c r="T37" t="n">
-        <v>616.241446754598</v>
+        <v>522.1134503467246</v>
       </c>
       <c r="U37" t="n">
-        <v>496.3129746617917</v>
+        <v>402.1849782539183</v>
       </c>
       <c r="V37" t="n">
-        <v>402.829997963248</v>
+        <v>308.7020015553746</v>
       </c>
       <c r="W37" t="n">
-        <v>283.9259242236809</v>
+        <v>189.7979278158075</v>
       </c>
       <c r="X37" t="n">
-        <v>219.9257878620904</v>
+        <v>125.797791454217</v>
       </c>
       <c r="Y37" t="n">
-        <v>71.01496038952772</v>
+        <v>71.0149603895278</v>
       </c>
     </row>
     <row r="38">
@@ -7154,13 +7154,13 @@
         <v>1140.941437787719</v>
       </c>
       <c r="D38" t="n">
-        <v>935.3698007579761</v>
+        <v>935.3698007579762</v>
       </c>
       <c r="E38" t="n">
-        <v>707.8364086071167</v>
+        <v>707.8364086071168</v>
       </c>
       <c r="F38" t="n">
-        <v>460.9375456603208</v>
+        <v>460.9375456603209</v>
       </c>
       <c r="G38" t="n">
         <v>212.4716960224776</v>
@@ -7169,28 +7169,28 @@
         <v>50.85391747321462</v>
       </c>
       <c r="I38" t="n">
-        <v>50.85391747321529</v>
+        <v>50.85391747321484</v>
       </c>
       <c r="J38" t="n">
-        <v>154.9459054532642</v>
+        <v>154.9459054532638</v>
       </c>
       <c r="K38" t="n">
-        <v>443.1860302481641</v>
+        <v>443.1860302481636</v>
       </c>
       <c r="L38" t="n">
-        <v>850.7433998907126</v>
+        <v>850.7433998907121</v>
       </c>
       <c r="M38" t="n">
-        <v>1310.379159876957</v>
+        <v>1310.379159876956</v>
       </c>
       <c r="N38" t="n">
         <v>1756.181478599933</v>
       </c>
       <c r="O38" t="n">
-        <v>2124.89697738289</v>
+        <v>2124.896977382889</v>
       </c>
       <c r="P38" t="n">
-        <v>2407.429665198536</v>
+        <v>2407.429665198535</v>
       </c>
       <c r="Q38" t="n">
         <v>2542.695873660731</v>
@@ -7227,19 +7227,19 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>920.8593958421039</v>
+        <v>920.8593958421042</v>
       </c>
       <c r="C39" t="n">
-        <v>759.1557230830587</v>
+        <v>759.155723083059</v>
       </c>
       <c r="D39" t="n">
-        <v>620.3170860732707</v>
+        <v>620.3170860732712</v>
       </c>
       <c r="E39" t="n">
-        <v>473.2890761301419</v>
+        <v>473.2890761301423</v>
       </c>
       <c r="F39" t="n">
-        <v>338.5952780800163</v>
+        <v>338.5952780800167</v>
       </c>
       <c r="G39" t="n">
         <v>210.0732042050868</v>
@@ -7251,22 +7251,22 @@
         <v>50.85391747321462</v>
       </c>
       <c r="J39" t="n">
-        <v>130.2226992162549</v>
+        <v>50.85391747321462</v>
       </c>
       <c r="K39" t="n">
-        <v>392.3832078845233</v>
+        <v>313.014426141483</v>
       </c>
       <c r="L39" t="n">
-        <v>802.1338407649491</v>
+        <v>722.7650590219088</v>
       </c>
       <c r="M39" t="n">
-        <v>1338.430017546049</v>
+        <v>1014.14682775868</v>
       </c>
       <c r="N39" t="n">
-        <v>1578.032071547366</v>
+        <v>1578.032071547365</v>
       </c>
       <c r="O39" t="n">
-        <v>2018.368674122673</v>
+        <v>2018.368674122672</v>
       </c>
       <c r="P39" t="n">
         <v>2359.098500262959</v>
@@ -7278,19 +7278,19 @@
         <v>2495.728130619192</v>
       </c>
       <c r="S39" t="n">
-        <v>2346.762917934841</v>
+        <v>2346.762917934842</v>
       </c>
       <c r="T39" t="n">
-        <v>2158.909856151446</v>
+        <v>2158.909856151447</v>
       </c>
       <c r="U39" t="n">
-        <v>1940.428644414347</v>
+        <v>1940.428644414348</v>
       </c>
       <c r="V39" t="n">
-        <v>1712.033021862681</v>
+        <v>1712.033021862682</v>
       </c>
       <c r="W39" t="n">
-        <v>1470.717153095991</v>
+        <v>1470.717153095992</v>
       </c>
       <c r="X39" t="n">
         <v>1272.800164973786</v>
@@ -7306,22 +7306,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>148.8399158560552</v>
+        <v>54.71191944818171</v>
       </c>
       <c r="C40" t="n">
-        <v>146.4762740607692</v>
+        <v>52.34827765289574</v>
       </c>
       <c r="D40" t="n">
-        <v>146.4762740607692</v>
+        <v>52.34827765289574</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4762740607692</v>
+        <v>52.34827765289574</v>
       </c>
       <c r="F40" t="n">
-        <v>146.4762740607692</v>
+        <v>52.34827765289574</v>
       </c>
       <c r="G40" t="n">
-        <v>144.9819138810881</v>
+        <v>50.85391747321462</v>
       </c>
       <c r="H40" t="n">
         <v>50.85391747321462</v>
@@ -7357,25 +7357,25 @@
         <v>724.8700896544216</v>
       </c>
       <c r="S40" t="n">
-        <v>681.4286309828443</v>
+        <v>587.300634574971</v>
       </c>
       <c r="T40" t="n">
-        <v>616.241446754598</v>
+        <v>522.1134503467246</v>
       </c>
       <c r="U40" t="n">
-        <v>496.3129746617917</v>
+        <v>402.1849782539183</v>
       </c>
       <c r="V40" t="n">
-        <v>402.829997963248</v>
+        <v>308.7020015553746</v>
       </c>
       <c r="W40" t="n">
-        <v>283.9259242236809</v>
+        <v>189.7979278158075</v>
       </c>
       <c r="X40" t="n">
-        <v>219.9257878620904</v>
+        <v>125.797791454217</v>
       </c>
       <c r="Y40" t="n">
-        <v>165.1429567974013</v>
+        <v>71.0149603895278</v>
       </c>
     </row>
     <row r="41">
@@ -7391,37 +7391,37 @@
         <v>1140.941437787719</v>
       </c>
       <c r="D41" t="n">
-        <v>935.3698007579762</v>
+        <v>935.3698007579765</v>
       </c>
       <c r="E41" t="n">
-        <v>707.8364086071168</v>
+        <v>707.8364086071171</v>
       </c>
       <c r="F41" t="n">
-        <v>460.9375456603209</v>
+        <v>460.9375456603211</v>
       </c>
       <c r="G41" t="n">
         <v>212.4716960224776</v>
       </c>
       <c r="H41" t="n">
-        <v>50.85391747321462</v>
+        <v>50.85391747321461</v>
       </c>
       <c r="I41" t="n">
-        <v>50.85391747321484</v>
+        <v>50.85391747321461</v>
       </c>
       <c r="J41" t="n">
-        <v>154.9459054532638</v>
+        <v>154.9459054532635</v>
       </c>
       <c r="K41" t="n">
-        <v>443.1860302481636</v>
+        <v>443.1860302481634</v>
       </c>
       <c r="L41" t="n">
-        <v>850.7433998907121</v>
+        <v>850.7433998907119</v>
       </c>
       <c r="M41" t="n">
         <v>1310.379159876956</v>
       </c>
       <c r="N41" t="n">
-        <v>1756.181478599933</v>
+        <v>1756.181478599932</v>
       </c>
       <c r="O41" t="n">
         <v>2124.896977382889</v>
@@ -7433,7 +7433,7 @@
         <v>2542.695873660731</v>
       </c>
       <c r="R41" t="n">
-        <v>2542.695873660731</v>
+        <v>2542.69587366073</v>
       </c>
       <c r="S41" t="n">
         <v>2531.510852380082</v>
@@ -7464,28 +7464,28 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>920.8593958421042</v>
+        <v>920.8593958421037</v>
       </c>
       <c r="C42" t="n">
-        <v>759.155723083059</v>
+        <v>759.1557230830585</v>
       </c>
       <c r="D42" t="n">
-        <v>620.3170860732712</v>
+        <v>620.3170860732707</v>
       </c>
       <c r="E42" t="n">
-        <v>473.2890761301423</v>
+        <v>473.2890761301419</v>
       </c>
       <c r="F42" t="n">
-        <v>338.5952780800167</v>
+        <v>338.5952780800162</v>
       </c>
       <c r="G42" t="n">
-        <v>210.0732042050869</v>
+        <v>210.0732042050868</v>
       </c>
       <c r="H42" t="n">
         <v>112.1289883137699</v>
       </c>
       <c r="I42" t="n">
-        <v>50.85391747321462</v>
+        <v>50.85391747321461</v>
       </c>
       <c r="J42" t="n">
         <v>130.2226992162549</v>
@@ -7506,28 +7506,28 @@
         <v>2018.368674122672</v>
       </c>
       <c r="P42" t="n">
-        <v>2359.098500262959</v>
+        <v>2359.098500262958</v>
       </c>
       <c r="Q42" t="n">
-        <v>2542.695873660731</v>
+        <v>2542.69587366073</v>
       </c>
       <c r="R42" t="n">
         <v>2495.728130619192</v>
       </c>
       <c r="S42" t="n">
-        <v>2346.762917934842</v>
+        <v>2346.762917934841</v>
       </c>
       <c r="T42" t="n">
-        <v>2158.909856151447</v>
+        <v>2158.909856151446</v>
       </c>
       <c r="U42" t="n">
-        <v>1940.428644414348</v>
+        <v>1940.428644414347</v>
       </c>
       <c r="V42" t="n">
-        <v>1712.033021862682</v>
+        <v>1712.033021862681</v>
       </c>
       <c r="W42" t="n">
-        <v>1470.717153095992</v>
+        <v>1470.717153095991</v>
       </c>
       <c r="X42" t="n">
         <v>1272.800164973786</v>
@@ -7543,31 +7543,31 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>54.71191944818171</v>
+        <v>54.71191944818165</v>
       </c>
       <c r="C43" t="n">
-        <v>52.34827765289574</v>
+        <v>52.3482776528957</v>
       </c>
       <c r="D43" t="n">
-        <v>52.34827765289574</v>
+        <v>52.3482776528957</v>
       </c>
       <c r="E43" t="n">
-        <v>52.34827765289574</v>
+        <v>52.3482776528957</v>
       </c>
       <c r="F43" t="n">
-        <v>52.34827765289574</v>
+        <v>52.3482776528957</v>
       </c>
       <c r="G43" t="n">
-        <v>50.85391747321462</v>
+        <v>50.85391747321461</v>
       </c>
       <c r="H43" t="n">
-        <v>50.85391747321462</v>
+        <v>50.85391747321461</v>
       </c>
       <c r="I43" t="n">
-        <v>50.85391747321462</v>
+        <v>50.85391747321461</v>
       </c>
       <c r="J43" t="n">
-        <v>50.85391747321462</v>
+        <v>50.85391747321461</v>
       </c>
       <c r="K43" t="n">
         <v>104.1644935890949</v>
@@ -7588,31 +7588,31 @@
         <v>724.8700896544216</v>
       </c>
       <c r="Q43" t="n">
-        <v>700.8242228045381</v>
+        <v>724.8700896544216</v>
       </c>
       <c r="R43" t="n">
-        <v>700.8242228045381</v>
+        <v>724.8700896544216</v>
       </c>
       <c r="S43" t="n">
-        <v>657.3827641329608</v>
+        <v>681.4286309828443</v>
       </c>
       <c r="T43" t="n">
-        <v>592.1955799047144</v>
+        <v>616.241446754598</v>
       </c>
       <c r="U43" t="n">
-        <v>472.267107811908</v>
+        <v>402.1849782539181</v>
       </c>
       <c r="V43" t="n">
-        <v>378.7841311133644</v>
+        <v>308.7020015553745</v>
       </c>
       <c r="W43" t="n">
-        <v>189.7979278158075</v>
+        <v>189.7979278158073</v>
       </c>
       <c r="X43" t="n">
-        <v>125.797791454217</v>
+        <v>125.7977914542169</v>
       </c>
       <c r="Y43" t="n">
-        <v>71.0149603895278</v>
+        <v>71.01496038952772</v>
       </c>
     </row>
     <row r="44">
@@ -7622,19 +7622,19 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1355.622868711878</v>
+        <v>1355.622868711877</v>
       </c>
       <c r="C44" t="n">
-        <v>1140.941437787719</v>
+        <v>1140.941437787718</v>
       </c>
       <c r="D44" t="n">
-        <v>935.369800757976</v>
+        <v>935.3698007579756</v>
       </c>
       <c r="E44" t="n">
-        <v>707.8364086071165</v>
+        <v>707.836408607116</v>
       </c>
       <c r="F44" t="n">
-        <v>460.9375456603209</v>
+        <v>460.9375456603207</v>
       </c>
       <c r="G44" t="n">
         <v>212.4716960224776</v>
@@ -7646,19 +7646,19 @@
         <v>50.85391747321462</v>
       </c>
       <c r="J44" t="n">
-        <v>154.9459054532633</v>
+        <v>154.9459054532636</v>
       </c>
       <c r="K44" t="n">
-        <v>443.1860302481632</v>
+        <v>443.1860302481634</v>
       </c>
       <c r="L44" t="n">
-        <v>850.7433998907119</v>
+        <v>850.743399890712</v>
       </c>
       <c r="M44" t="n">
         <v>1310.379159876956</v>
       </c>
       <c r="N44" t="n">
-        <v>1756.181478599932</v>
+        <v>1756.181478599933</v>
       </c>
       <c r="O44" t="n">
         <v>2124.896977382889</v>
@@ -7673,16 +7673,16 @@
         <v>2542.695873660731</v>
       </c>
       <c r="S44" t="n">
-        <v>2531.510852380083</v>
+        <v>2531.510852380082</v>
       </c>
       <c r="T44" t="n">
         <v>2476.093113473632</v>
       </c>
       <c r="U44" t="n">
-        <v>2388.490969663855</v>
+        <v>2388.490969663854</v>
       </c>
       <c r="V44" t="n">
-        <v>2218.76402330283</v>
+        <v>2218.764023302829</v>
       </c>
       <c r="W44" t="n">
         <v>2023.481420903464</v>
@@ -7701,10 +7701,10 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>920.8593958421045</v>
+        <v>920.8593958421037</v>
       </c>
       <c r="C45" t="n">
-        <v>759.1557230830587</v>
+        <v>759.1557230830585</v>
       </c>
       <c r="D45" t="n">
         <v>620.3170860732707</v>
@@ -7713,7 +7713,7 @@
         <v>473.2890761301419</v>
       </c>
       <c r="F45" t="n">
-        <v>338.5952780800163</v>
+        <v>338.5952780800162</v>
       </c>
       <c r="G45" t="n">
         <v>210.0732042050868</v>
@@ -7737,13 +7737,13 @@
         <v>1338.430017546049</v>
       </c>
       <c r="N45" t="n">
-        <v>1578.032071547365</v>
+        <v>1902.315261334734</v>
       </c>
       <c r="O45" t="n">
-        <v>2018.368674122672</v>
+        <v>2342.651863910041</v>
       </c>
       <c r="P45" t="n">
-        <v>2359.098500262959</v>
+        <v>2542.695873660731</v>
       </c>
       <c r="Q45" t="n">
         <v>2542.695873660731</v>
@@ -7752,19 +7752,19 @@
         <v>2495.728130619192</v>
       </c>
       <c r="S45" t="n">
-        <v>2346.762917934842</v>
+        <v>2346.762917934841</v>
       </c>
       <c r="T45" t="n">
-        <v>2158.909856151447</v>
+        <v>2158.909856151446</v>
       </c>
       <c r="U45" t="n">
-        <v>1940.428644414348</v>
+        <v>1940.428644414347</v>
       </c>
       <c r="V45" t="n">
-        <v>1712.033021862682</v>
+        <v>1712.033021862681</v>
       </c>
       <c r="W45" t="n">
-        <v>1470.717153095992</v>
+        <v>1470.717153095991</v>
       </c>
       <c r="X45" t="n">
         <v>1272.800164973786</v>
@@ -7831,13 +7831,13 @@
         <v>724.8700896544216</v>
       </c>
       <c r="S46" t="n">
-        <v>681.4286309828442</v>
+        <v>587.300634574971</v>
       </c>
       <c r="T46" t="n">
-        <v>616.2414467545977</v>
+        <v>522.1134503467246</v>
       </c>
       <c r="U46" t="n">
-        <v>496.3129746617914</v>
+        <v>402.1849782539183</v>
       </c>
       <c r="V46" t="n">
         <v>308.7020015553746</v>
@@ -7979,25 +7979,25 @@
         <v>219.8255997236959</v>
       </c>
       <c r="K2" t="n">
-        <v>196.5094719079715</v>
+        <v>178.8230039740467</v>
       </c>
       <c r="L2" t="n">
         <v>191.5602121631146</v>
       </c>
       <c r="M2" t="n">
-        <v>281.3754171575708</v>
+        <v>204.8427824310835</v>
       </c>
       <c r="N2" t="n">
-        <v>280.6172168326419</v>
+        <v>186.3981141722301</v>
       </c>
       <c r="O2" t="n">
-        <v>186.9547967801205</v>
+        <v>281.1738994405318</v>
       </c>
       <c r="P2" t="n">
-        <v>282.0959117115683</v>
+        <v>282.0959117115679</v>
       </c>
       <c r="Q2" t="n">
-        <v>180.6233730229902</v>
+        <v>274.8424756834016</v>
       </c>
       <c r="R2" t="n">
         <v>85.43134583487716</v>
@@ -8058,25 +8058,25 @@
         <v>163.9183459425315</v>
       </c>
       <c r="K3" t="n">
-        <v>111.9961691666667</v>
+        <v>206.2152718270781</v>
       </c>
       <c r="L3" t="n">
         <v>112.5754335711478</v>
       </c>
       <c r="M3" t="n">
-        <v>145.0333985154631</v>
+        <v>115.4839025616399</v>
       </c>
       <c r="N3" t="n">
-        <v>200.9342437281201</v>
+        <v>136.2646370215312</v>
       </c>
       <c r="O3" t="n">
-        <v>210.0785512715229</v>
+        <v>115.8594486111111</v>
       </c>
       <c r="P3" t="n">
-        <v>203.0733086845551</v>
+        <v>203.0733086845547</v>
       </c>
       <c r="Q3" t="n">
-        <v>113.7351914448925</v>
+        <v>207.9542941053039</v>
       </c>
       <c r="R3" t="n">
         <v>59.17817075471706</v>
@@ -8140,19 +8140,19 @@
         <v>104.82327226356</v>
       </c>
       <c r="L4" t="n">
-        <v>203.8129021389179</v>
+        <v>136.4015406898728</v>
       </c>
       <c r="M4" t="n">
-        <v>203.2894696871172</v>
+        <v>207.0963021178405</v>
       </c>
       <c r="N4" t="n">
-        <v>197.9636075384137</v>
+        <v>197.9636075384134</v>
       </c>
       <c r="O4" t="n">
-        <v>206.715040152534</v>
+        <v>206.7150401525337</v>
       </c>
       <c r="P4" t="n">
-        <v>111.9040032899324</v>
+        <v>175.5085323082534</v>
       </c>
       <c r="Q4" t="n">
         <v>84.9458458910769</v>
@@ -8213,28 +8213,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>147.0997974279326</v>
+        <v>219.8255997236959</v>
       </c>
       <c r="K5" t="n">
-        <v>178.8230039740467</v>
+        <v>273.0421066344581</v>
       </c>
       <c r="L5" t="n">
-        <v>281.9724823928027</v>
+        <v>285.779314823526</v>
       </c>
       <c r="M5" t="n">
-        <v>281.3754171575708</v>
+        <v>187.1563144971591</v>
       </c>
       <c r="N5" t="n">
         <v>186.3981141722301</v>
       </c>
       <c r="O5" t="n">
-        <v>281.1738994405322</v>
+        <v>186.9547967801205</v>
       </c>
       <c r="P5" t="n">
-        <v>187.8768090511565</v>
+        <v>205.5632769850809</v>
       </c>
       <c r="Q5" t="n">
-        <v>274.842475683402</v>
+        <v>274.8424756834016</v>
       </c>
       <c r="R5" t="n">
         <v>85.43134583487716</v>
@@ -8292,28 +8292,28 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J6" t="n">
-        <v>103.0555716666667</v>
+        <v>163.9183459425315</v>
       </c>
       <c r="K6" t="n">
-        <v>111.9961691666667</v>
+        <v>206.2152718270781</v>
       </c>
       <c r="L6" t="n">
-        <v>206.7945362315596</v>
+        <v>142.1249295249707</v>
       </c>
       <c r="M6" t="n">
-        <v>209.7030052220517</v>
+        <v>209.7030052220513</v>
       </c>
       <c r="N6" t="n">
         <v>106.7151410677083</v>
       </c>
       <c r="O6" t="n">
-        <v>206.2717188407992</v>
+        <v>115.8594486111111</v>
       </c>
       <c r="P6" t="n">
-        <v>203.0733086845551</v>
+        <v>108.8542060241433</v>
       </c>
       <c r="Q6" t="n">
-        <v>113.7351914448925</v>
+        <v>207.9542941053039</v>
       </c>
       <c r="R6" t="n">
         <v>59.17817075471706</v>
@@ -8374,22 +8374,22 @@
         <v>43.72711371954033</v>
       </c>
       <c r="K7" t="n">
-        <v>138.7668962480483</v>
+        <v>104.82327226356</v>
       </c>
       <c r="L7" t="n">
-        <v>196.6770193657966</v>
+        <v>200.0060697081938</v>
       </c>
       <c r="M7" t="n">
-        <v>112.8771994574291</v>
+        <v>207.0963021178405</v>
       </c>
       <c r="N7" t="n">
-        <v>197.9636075384137</v>
+        <v>197.9636075384134</v>
       </c>
       <c r="O7" t="n">
-        <v>206.715040152534</v>
+        <v>206.7150401525337</v>
       </c>
       <c r="P7" t="n">
-        <v>175.5085323082534</v>
+        <v>111.9040032899324</v>
       </c>
       <c r="Q7" t="n">
         <v>84.9458458910769</v>
@@ -8450,28 +8450,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>219.8255997236959</v>
+        <v>147.0997974279326</v>
       </c>
       <c r="K8" t="n">
         <v>178.8230039740467</v>
       </c>
       <c r="L8" t="n">
-        <v>191.5602121631146</v>
+        <v>511.4364970724342</v>
       </c>
       <c r="M8" t="n">
-        <v>507.0325994064794</v>
+        <v>507.0325994064787</v>
       </c>
       <c r="N8" t="n">
-        <v>506.2743990815505</v>
+        <v>505.1409507896505</v>
       </c>
       <c r="O8" t="n">
         <v>495.0402356415689</v>
       </c>
       <c r="P8" t="n">
-        <v>418.3383206229274</v>
+        <v>187.8768090511565</v>
       </c>
       <c r="Q8" t="n">
-        <v>196.1788957728779</v>
+        <v>180.6233730229902</v>
       </c>
       <c r="R8" t="n">
         <v>85.43134583487716</v>
@@ -8529,7 +8529,7 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J9" t="n">
-        <v>163.9183459425315</v>
+        <v>103.0555716666667</v>
       </c>
       <c r="K9" t="n">
         <v>111.9961691666667</v>
@@ -8538,19 +8538,19 @@
         <v>112.5754335711478</v>
       </c>
       <c r="M9" t="n">
-        <v>435.3601874709602</v>
+        <v>277.7995022210221</v>
       </c>
       <c r="N9" t="n">
-        <v>426.5914259770287</v>
+        <v>426.5914259770279</v>
       </c>
       <c r="O9" t="n">
-        <v>435.7357335204315</v>
+        <v>435.7357335204307</v>
       </c>
       <c r="P9" t="n">
-        <v>354.9434223178285</v>
+        <v>414.0015992319183</v>
       </c>
       <c r="Q9" t="n">
-        <v>113.7351914448925</v>
+        <v>273.1004740566038</v>
       </c>
       <c r="R9" t="n">
         <v>59.17817075471706</v>
@@ -8769,10 +8769,10 @@
         <v>83.74785933339987</v>
       </c>
       <c r="K12" t="n">
-        <v>96.41651716248475</v>
+        <v>343.8048081163522</v>
       </c>
       <c r="L12" t="n">
-        <v>482.0924488944969</v>
+        <v>234.704157940629</v>
       </c>
       <c r="M12" t="n">
         <v>605.4165828749999</v>
@@ -9009,10 +9009,10 @@
         <v>343.8048081163522</v>
       </c>
       <c r="L15" t="n">
-        <v>154.5336713314979</v>
+        <v>482.0924488944969</v>
       </c>
       <c r="M15" t="n">
-        <v>605.4165828749999</v>
+        <v>277.8578053120008</v>
       </c>
       <c r="N15" t="n">
         <v>623.1450866466196</v>
@@ -9252,10 +9252,10 @@
         <v>605.4165828749999</v>
       </c>
       <c r="N18" t="n">
-        <v>623.1450866466196</v>
+        <v>375.7567956927521</v>
       </c>
       <c r="O18" t="n">
-        <v>264.6327241058809</v>
+        <v>512.0210150597484</v>
       </c>
       <c r="P18" t="n">
         <v>414.0015992319183</v>
@@ -9486,10 +9486,10 @@
         <v>482.0924488944969</v>
       </c>
       <c r="M21" t="n">
-        <v>605.4165828749999</v>
+        <v>277.8578053120008</v>
       </c>
       <c r="N21" t="n">
-        <v>295.5863090836206</v>
+        <v>623.1450866466196</v>
       </c>
       <c r="O21" t="n">
         <v>512.0210150597484</v>
@@ -9714,10 +9714,10 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J24" t="n">
-        <v>163.9183459425315</v>
+        <v>83.74785933339987</v>
       </c>
       <c r="K24" t="n">
-        <v>343.8048081163522</v>
+        <v>96.41651716248475</v>
       </c>
       <c r="L24" t="n">
         <v>482.0924488944969</v>
@@ -9726,7 +9726,7 @@
         <v>605.4165828749999</v>
       </c>
       <c r="N24" t="n">
-        <v>295.5863090836206</v>
+        <v>623.1450866466196</v>
       </c>
       <c r="O24" t="n">
         <v>512.0210150597484</v>
@@ -9963,16 +9963,16 @@
         <v>605.4165828749999</v>
       </c>
       <c r="N27" t="n">
-        <v>295.5863090836201</v>
+        <v>623.1450866466196</v>
       </c>
       <c r="O27" t="n">
         <v>512.0210150597484</v>
       </c>
       <c r="P27" t="n">
-        <v>414.0015992319183</v>
+        <v>271.8947139899008</v>
       </c>
       <c r="Q27" t="n">
-        <v>273.1004740566038</v>
+        <v>87.64858173562192</v>
       </c>
       <c r="R27" t="n">
         <v>59.17817075471706</v>
@@ -10437,7 +10437,7 @@
         <v>605.4165828749999</v>
       </c>
       <c r="N33" t="n">
-        <v>295.5863090836201</v>
+        <v>481.0382014046023</v>
       </c>
       <c r="O33" t="n">
         <v>512.0210150597484</v>
@@ -10446,7 +10446,7 @@
         <v>414.0015992319183</v>
       </c>
       <c r="Q33" t="n">
-        <v>273.1004740566038</v>
+        <v>87.64858173562192</v>
       </c>
       <c r="R33" t="n">
         <v>59.17817075471706</v>
@@ -10671,10 +10671,10 @@
         <v>482.0924488944969</v>
       </c>
       <c r="M36" t="n">
-        <v>605.4165828749999</v>
+        <v>277.8578053120008</v>
       </c>
       <c r="N36" t="n">
-        <v>295.5863090836201</v>
+        <v>623.1450866466196</v>
       </c>
       <c r="O36" t="n">
         <v>512.0210150597484</v>
@@ -10899,7 +10899,7 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J39" t="n">
-        <v>163.9183459425315</v>
+        <v>83.74785933339987</v>
       </c>
       <c r="K39" t="n">
         <v>343.8048081163522</v>
@@ -10908,10 +10908,10 @@
         <v>482.0924488944969</v>
       </c>
       <c r="M39" t="n">
-        <v>605.4165828749999</v>
+        <v>358.0282919211324</v>
       </c>
       <c r="N39" t="n">
-        <v>295.586309083621</v>
+        <v>623.1450866466196</v>
       </c>
       <c r="O39" t="n">
         <v>512.0210150597484</v>
@@ -11148,7 +11148,7 @@
         <v>605.4165828749999</v>
       </c>
       <c r="N42" t="n">
-        <v>295.5863090836206</v>
+        <v>295.5863090836201</v>
       </c>
       <c r="O42" t="n">
         <v>512.0210150597484</v>
@@ -11385,16 +11385,16 @@
         <v>605.4165828749999</v>
       </c>
       <c r="N45" t="n">
-        <v>295.5863090836206</v>
+        <v>623.1450866466196</v>
       </c>
       <c r="O45" t="n">
         <v>512.0210150597484</v>
       </c>
       <c r="P45" t="n">
-        <v>414.0015992319183</v>
+        <v>271.8947139899012</v>
       </c>
       <c r="Q45" t="n">
-        <v>273.1004740566038</v>
+        <v>87.64858173562192</v>
       </c>
       <c r="R45" t="n">
         <v>59.17817075471706</v>
@@ -23255,25 +23255,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>279.951337527398</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>289.5171170790988</v>
+        <v>289.5171170790987</v>
       </c>
       <c r="D11" t="n">
-        <v>280.4984211236268</v>
+        <v>280.4984211236267</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>86.7576267489914</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>236.9841012279518</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23306,10 +23306,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>88.05567153202327</v>
       </c>
       <c r="T11" t="n">
-        <v>131.8460619815677</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>163.7086228358611</v>
@@ -23413,25 +23413,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>93.1225109961141</v>
       </c>
       <c r="C13" t="n">
-        <v>79.32250584151461</v>
+        <v>79.32250584151458</v>
       </c>
       <c r="D13" t="n">
-        <v>62.943870239093</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>61.89162009487245</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>62.35854442305876</v>
+        <v>62.35854442305873</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>53.09953731718961</v>
       </c>
       <c r="H13" t="n">
-        <v>67.65833440264896</v>
+        <v>67.65833440264893</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -23461,7 +23461,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>51.72563515054811</v>
+        <v>51.72563515054808</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23473,7 +23473,7 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>21.38655797933876</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23495,10 +23495,10 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>289.5171170790989</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>280.4984211236268</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -23510,10 +23510,10 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>236.9841012279518</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>67.76655404901209</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23543,22 +23543,22 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>88.05567153202337</v>
       </c>
       <c r="T14" t="n">
-        <v>131.8460619815676</v>
+        <v>131.8460619815677</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>110.5921114696409</v>
       </c>
       <c r="V14" t="n">
-        <v>149.0000313771685</v>
+        <v>245.0121773615962</v>
       </c>
       <c r="W14" t="n">
-        <v>270.3122768395531</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>289.6125350722997</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -23650,10 +23650,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>93.1225109961141</v>
+        <v>93.1225109961142</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>79.32250584151468</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -23662,7 +23662,7 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>62.35854442305873</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -23701,10 +23701,10 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>119.9895445490431</v>
       </c>
       <c r="T16" t="n">
-        <v>111.4633772497447</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23716,10 +23716,10 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>140.3426354621561</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>114.8525067444037</v>
       </c>
     </row>
     <row r="17">
@@ -24017,10 +24017,10 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>8.029132914089132e-13</v>
       </c>
       <c r="T20" t="n">
-        <v>8.455458555545192e-13</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
@@ -26311,37 +26311,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>57571.8045370636</v>
+        <v>57571.80453706363</v>
       </c>
       <c r="C2" t="n">
+        <v>57571.80453706364</v>
+      </c>
+      <c r="D2" t="n">
         <v>57571.80453706363</v>
       </c>
-      <c r="D2" t="n">
-        <v>57571.80453706364</v>
-      </c>
       <c r="E2" t="n">
+        <v>49999.92409795888</v>
+      </c>
+      <c r="F2" t="n">
         <v>49999.92409795876</v>
-      </c>
-      <c r="F2" t="n">
-        <v>49999.92409795886</v>
       </c>
       <c r="G2" t="n">
         <v>57571.80453706363</v>
       </c>
       <c r="H2" t="n">
-        <v>57571.80453706364</v>
+        <v>57571.80453706362</v>
       </c>
       <c r="I2" t="n">
-        <v>57571.80453706362</v>
+        <v>57571.80453706363</v>
       </c>
       <c r="J2" t="n">
-        <v>57571.80453706365</v>
+        <v>57571.80453706353</v>
       </c>
       <c r="K2" t="n">
         <v>57571.80453706362</v>
       </c>
       <c r="L2" t="n">
-        <v>57571.80453706364</v>
+        <v>57571.80453706362</v>
       </c>
       <c r="M2" t="n">
         <v>57571.80453706362</v>
@@ -26350,10 +26350,10 @@
         <v>57571.80453706365</v>
       </c>
       <c r="O2" t="n">
+        <v>57571.80453706364</v>
+      </c>
+      <c r="P2" t="n">
         <v>57571.80453706363</v>
-      </c>
-      <c r="P2" t="n">
-        <v>57571.80453706365</v>
       </c>
     </row>
     <row r="3">
@@ -26363,22 +26363,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>31574.98834086518</v>
+        <v>31574.98834086505</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>70095.89052197848</v>
+        <v>70095.89052197833</v>
       </c>
       <c r="E3" t="n">
-        <v>241499.6676820819</v>
+        <v>241499.6676820822</v>
       </c>
       <c r="F3" t="n">
-        <v>2.273736754432321e-11</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>61586.00037134517</v>
+        <v>61586.00037134525</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,7 +26387,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>107374.4157946592</v>
+        <v>107374.4157946591</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26396,13 +26396,13 @@
         <v>108783.1384666376</v>
       </c>
       <c r="M3" t="n">
-        <v>78698.04592039497</v>
+        <v>78698.04592039509</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>23680.7051058451</v>
+        <v>23680.70510584512</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26418,16 +26418,16 @@
         <v>345450.4514975111</v>
       </c>
       <c r="C4" t="n">
-        <v>345450.4514975111</v>
+        <v>345450.4514975112</v>
       </c>
       <c r="D4" t="n">
-        <v>302199.7102252886</v>
+        <v>302199.7102252888</v>
       </c>
       <c r="E4" t="n">
         <v>172329.4883631854</v>
       </c>
       <c r="F4" t="n">
-        <v>172329.4883631855</v>
+        <v>172329.4883631853</v>
       </c>
       <c r="G4" t="n">
         <v>229756.4510440663</v>
@@ -26439,7 +26439,7 @@
         <v>229756.4510440663</v>
       </c>
       <c r="J4" t="n">
-        <v>230905.3765422572</v>
+        <v>230905.3765422571</v>
       </c>
       <c r="K4" t="n">
         <v>230905.3765422572</v>
@@ -26467,19 +26467,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>39356.12144175304</v>
+        <v>39356.12144175301</v>
       </c>
       <c r="C5" t="n">
-        <v>39356.12144175304</v>
+        <v>39356.12144175301</v>
       </c>
       <c r="D5" t="n">
-        <v>53076.07812248668</v>
+        <v>53076.07812248662</v>
       </c>
       <c r="E5" t="n">
-        <v>48168.48921240022</v>
+        <v>48168.48921240021</v>
       </c>
       <c r="F5" t="n">
-        <v>48168.48921240022</v>
+        <v>48168.48921240021</v>
       </c>
       <c r="G5" t="n">
         <v>54640.33104392349</v>
@@ -26491,22 +26491,22 @@
         <v>54640.33104392349</v>
       </c>
       <c r="J5" t="n">
-        <v>63400.5174714907</v>
+        <v>63400.51747149069</v>
       </c>
       <c r="K5" t="n">
-        <v>63400.5174714907</v>
+        <v>63400.51747149069</v>
       </c>
       <c r="L5" t="n">
-        <v>54640.33104392347</v>
+        <v>54640.33104392349</v>
       </c>
       <c r="M5" t="n">
+        <v>54640.33104392349</v>
+      </c>
+      <c r="N5" t="n">
+        <v>54640.33104392349</v>
+      </c>
+      <c r="O5" t="n">
         <v>54640.33104392348</v>
-      </c>
-      <c r="N5" t="n">
-        <v>54640.3310439235</v>
-      </c>
-      <c r="O5" t="n">
-        <v>54640.33104392349</v>
       </c>
       <c r="P5" t="n">
         <v>54640.33104392349</v>
@@ -26519,19 +26519,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-358809.7567430658</v>
+        <v>-358809.7567430655</v>
       </c>
       <c r="C6" t="n">
         <v>-327234.7684022005</v>
       </c>
       <c r="D6" t="n">
-        <v>-367799.8743326901</v>
+        <v>-367799.87433269</v>
       </c>
       <c r="E6" t="n">
-        <v>-411997.7211597088</v>
+        <v>-412250.1171743458</v>
       </c>
       <c r="F6" t="n">
-        <v>-170498.0534776268</v>
+        <v>-170750.4494922635</v>
       </c>
       <c r="G6" t="n">
         <v>-288410.9779222714</v>
@@ -26543,16 +26543,16 @@
         <v>-226824.9775509262</v>
       </c>
       <c r="J6" t="n">
-        <v>-344108.5052713435</v>
+        <v>-344108.5052713434</v>
       </c>
       <c r="K6" t="n">
         <v>-236734.0894766843</v>
       </c>
       <c r="L6" t="n">
-        <v>-335608.1160175637</v>
+        <v>-335608.1160175639</v>
       </c>
       <c r="M6" t="n">
-        <v>-305523.0234713212</v>
+        <v>-305523.0234713213</v>
       </c>
       <c r="N6" t="n">
         <v>-226824.9775509262</v>
@@ -26692,10 +26692,10 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>88.59730400142189</v>
+        <v>88.59730400142192</v>
       </c>
       <c r="F2" t="n">
-        <v>88.59730400142192</v>
+        <v>88.59730400142182</v>
       </c>
       <c r="G2" t="n">
         <v>165.5798044656034</v>
@@ -26707,7 +26707,7 @@
         <v>165.5798044656034</v>
       </c>
       <c r="J2" t="n">
-        <v>106.5833818464879</v>
+        <v>106.5833818464878</v>
       </c>
       <c r="K2" t="n">
         <v>106.5833818464879</v>
@@ -26787,16 +26787,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>94.21910266041178</v>
+        <v>94.21910266041139</v>
       </c>
       <c r="C4" t="n">
-        <v>94.21910266041178</v>
+        <v>94.21910266041139</v>
       </c>
       <c r="D4" t="n">
-        <v>319.8762849093204</v>
+        <v>319.8762849093196</v>
       </c>
       <c r="E4" t="n">
-        <v>635.6739684151827</v>
+        <v>635.6739684151826</v>
       </c>
       <c r="F4" t="n">
         <v>635.6739684151827</v>
@@ -26814,19 +26814,19 @@
         <v>861.331150664091</v>
       </c>
       <c r="K4" t="n">
-        <v>861.331150664091</v>
+        <v>861.3311506640908</v>
       </c>
       <c r="L4" t="n">
-        <v>635.6739684151823</v>
+        <v>635.6739684151827</v>
       </c>
       <c r="M4" t="n">
+        <v>635.6739684151827</v>
+      </c>
+      <c r="N4" t="n">
+        <v>635.6739684151827</v>
+      </c>
+      <c r="O4" t="n">
         <v>635.6739684151826</v>
-      </c>
-      <c r="N4" t="n">
-        <v>635.6739684151828</v>
-      </c>
-      <c r="O4" t="n">
-        <v>635.6739684151827</v>
       </c>
       <c r="P4" t="n">
         <v>635.6739684151827</v>
@@ -26914,13 +26914,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>88.59730400142189</v>
+        <v>88.59730400142192</v>
       </c>
       <c r="F2" t="n">
-        <v>2.842170943040401e-14</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>76.98250046418147</v>
+        <v>76.98250046418157</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26929,7 +26929,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>29.6008813823064</v>
+        <v>29.60088138230637</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -26944,7 +26944,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>29.60088138230637</v>
+        <v>29.6008813823064</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27009,16 +27009,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>94.21910266041178</v>
+        <v>94.21910266041139</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>225.6571822489086</v>
+        <v>225.6571822489082</v>
       </c>
       <c r="E4" t="n">
-        <v>315.7976835058623</v>
+        <v>315.797683505863</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>319.87628490932</v>
+        <v>319.8762849093197</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>315.7976835058626</v>
+        <v>315.797683505863</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27151,13 +27151,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>88.59730400142189</v>
+        <v>88.59730400142192</v>
       </c>
       <c r="K2" t="n">
-        <v>2.842170943040401e-14</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>76.98250046418147</v>
+        <v>76.98250046418157</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27166,7 +27166,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>29.6008813823064</v>
+        <v>29.60088138230637</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27255,16 +27255,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>94.21910266041178</v>
+        <v>94.21910266041139</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>225.6571822489086</v>
+        <v>225.6571822489082</v>
       </c>
       <c r="M4" t="n">
-        <v>315.7976835058623</v>
+        <v>315.797683505863</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,16 +27376,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>390.1031041228389</v>
+        <v>295.8840014624275</v>
       </c>
       <c r="C2" t="n">
-        <v>378.1144210805207</v>
+        <v>283.8953184201093</v>
       </c>
       <c r="D2" t="n">
-        <v>369.0957251250487</v>
+        <v>274.8766224646373</v>
       </c>
       <c r="E2" t="n">
-        <v>325.3151035136422</v>
+        <v>390.8378626949542</v>
       </c>
       <c r="F2" t="n">
         <v>400</v>
@@ -27424,7 +27424,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>89.73190363910518</v>
       </c>
       <c r="S2" t="n">
         <v>185.3566856159496</v>
@@ -27442,10 +27442,10 @@
         <v>358.909580840975</v>
       </c>
       <c r="X2" t="n">
-        <v>283.9907364133098</v>
+        <v>317.1742789137165</v>
       </c>
       <c r="Y2" t="n">
-        <v>295.3873342095086</v>
+        <v>389.6064368699203</v>
       </c>
     </row>
     <row r="3">
@@ -27458,7 +27458,7 @@
         <v>157.8252483534483</v>
       </c>
       <c r="C3" t="n">
-        <v>65.86753337104307</v>
+        <v>160.0866360314548</v>
       </c>
       <c r="D3" t="n">
         <v>137.45025063969</v>
@@ -27503,28 +27503,28 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>59.18642621600367</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>68.28330649409642</v>
+        <v>57.05238945697572</v>
       </c>
       <c r="T3" t="n">
-        <v>186.7982527956746</v>
+        <v>92.57915013526325</v>
       </c>
       <c r="U3" t="n">
-        <v>216.3098444776729</v>
+        <v>122.0907418172615</v>
       </c>
       <c r="V3" t="n">
-        <v>131.8925636657376</v>
+        <v>226.1116663261494</v>
       </c>
       <c r="W3" t="n">
-        <v>238.9027100790231</v>
+        <v>215.1009506717364</v>
       </c>
       <c r="X3" t="n">
         <v>195.9378182409833</v>
       </c>
       <c r="Y3" t="n">
-        <v>96.37701042650517</v>
+        <v>190.5961130869169</v>
       </c>
     </row>
     <row r="4">
@@ -27582,28 +27582,28 @@
         <v>38.15196793284785</v>
       </c>
       <c r="R4" t="n">
-        <v>65.03837794847487</v>
+        <v>148.0265635717656</v>
       </c>
       <c r="S4" t="n">
         <v>211.5726649703493</v>
       </c>
       <c r="T4" t="n">
-        <v>136.6280609920662</v>
+        <v>147.8589780291876</v>
       </c>
       <c r="U4" t="n">
-        <v>190.0992344553793</v>
+        <v>190.0992344553797</v>
       </c>
       <c r="V4" t="n">
-        <v>258.1279513971616</v>
+        <v>163.9088487367502</v>
       </c>
       <c r="W4" t="n">
-        <v>283.2948374677749</v>
+        <v>189.0757348073635</v>
       </c>
       <c r="X4" t="n">
         <v>228.939939463578</v>
       </c>
       <c r="Y4" t="n">
-        <v>125.5957045592339</v>
+        <v>219.8148072196457</v>
       </c>
     </row>
     <row r="5">
@@ -27613,16 +27613,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>390.1031041228389</v>
+        <v>295.8840014624275</v>
       </c>
       <c r="C5" t="n">
         <v>378.1144210805207</v>
       </c>
       <c r="D5" t="n">
-        <v>274.8766224646369</v>
+        <v>369.0957251250487</v>
       </c>
       <c r="E5" t="n">
-        <v>390.8378626949542</v>
+        <v>296.6187600345428</v>
       </c>
       <c r="F5" t="n">
         <v>400</v>
@@ -27631,10 +27631,10 @@
         <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>268.4575014986584</v>
+        <v>268.4575014986588</v>
       </c>
       <c r="I5" t="n">
-        <v>171.0890268032919</v>
+        <v>76.86992414288055</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27676,10 +27676,10 @@
         <v>333.6094813630181</v>
       </c>
       <c r="W5" t="n">
-        <v>264.6904781805632</v>
+        <v>358.909580840975</v>
       </c>
       <c r="X5" t="n">
-        <v>283.9907364133098</v>
+        <v>378.2098390737216</v>
       </c>
       <c r="Y5" t="n">
         <v>389.6064368699203</v>
@@ -27695,22 +27695,22 @@
         <v>157.8252483534483</v>
       </c>
       <c r="C6" t="n">
-        <v>65.86753337104307</v>
+        <v>160.0866360314548</v>
       </c>
       <c r="D6" t="n">
-        <v>54.46206501639932</v>
+        <v>137.45025063969</v>
       </c>
       <c r="E6" t="n">
-        <v>145.5577298436975</v>
+        <v>121.7559704364108</v>
       </c>
       <c r="F6" t="n">
-        <v>39.12775740921262</v>
+        <v>39.127757409213</v>
       </c>
       <c r="G6" t="n">
-        <v>127.4412149769483</v>
+        <v>33.22211231653687</v>
       </c>
       <c r="H6" t="n">
-        <v>98.93847887876893</v>
+        <v>4.719376218357539</v>
       </c>
       <c r="I6" t="n">
         <v>67.69846245683961</v>
@@ -27740,7 +27740,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>59.18642621600367</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>151.2714921173871</v>
@@ -27761,7 +27761,7 @@
         <v>195.9378182409833</v>
       </c>
       <c r="Y6" t="n">
-        <v>96.37701042650517</v>
+        <v>190.5961130869169</v>
       </c>
     </row>
     <row r="7">
@@ -27771,13 +27771,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>98.7316293742453</v>
+        <v>181.719814997536</v>
       </c>
       <c r="C7" t="n">
-        <v>73.70070718252472</v>
+        <v>167.9198098429365</v>
       </c>
       <c r="D7" t="n">
-        <v>57.32207158010311</v>
+        <v>151.5411742405149</v>
       </c>
       <c r="E7" t="n">
         <v>150.4889240962943</v>
@@ -27795,7 +27795,7 @@
         <v>142.7610139533483</v>
       </c>
       <c r="J7" t="n">
-        <v>59.456666199969</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27816,22 +27816,22 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>38.15196793284785</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>53.80746091135379</v>
+        <v>148.0265635717656</v>
       </c>
       <c r="S7" t="n">
         <v>211.5726649703493</v>
       </c>
       <c r="T7" t="n">
-        <v>230.8471636524779</v>
+        <v>136.6280609920665</v>
       </c>
       <c r="U7" t="n">
-        <v>284.3183371157911</v>
+        <v>190.0992344553797</v>
       </c>
       <c r="V7" t="n">
-        <v>258.1279513971616</v>
+        <v>178.5292972462767</v>
       </c>
       <c r="W7" t="n">
         <v>283.2948374677749</v>
@@ -27850,25 +27850,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>390.1031041228389</v>
+        <v>70.22681921351938</v>
       </c>
       <c r="C8" t="n">
-        <v>58.23813617120032</v>
+        <v>58.23813617120112</v>
       </c>
       <c r="D8" t="n">
-        <v>369.0957251250487</v>
+        <v>49.21944021572909</v>
       </c>
       <c r="E8" t="n">
         <v>390.8378626949542</v>
       </c>
       <c r="F8" t="n">
-        <v>90.133393873611</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
         <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>9.616776749343444</v>
+        <v>329.4930616586638</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27910,7 +27910,7 @@
         <v>252.3364829231459</v>
       </c>
       <c r="V8" t="n">
-        <v>234.8944230985346</v>
+        <v>333.6094813630181</v>
       </c>
       <c r="W8" t="n">
         <v>358.909580840975</v>
@@ -27919,7 +27919,7 @@
         <v>378.2098390737216</v>
       </c>
       <c r="Y8" t="n">
-        <v>389.6064368699203</v>
+        <v>300.9010573883689</v>
       </c>
     </row>
     <row r="9">
@@ -27932,22 +27932,22 @@
         <v>157.8252483534483</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>160.0866360314548</v>
       </c>
       <c r="D9" t="n">
         <v>137.45025063969</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>145.5577298436975</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>133.3468600696244</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>127.4412149769483</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>98.93847887876893</v>
       </c>
       <c r="I9" t="n">
         <v>67.69846245683961</v>
@@ -27977,28 +27977,28 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>59.18642621600367</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>151.2714921173871</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>186.7982527956746</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
         <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>226.1116663261494</v>
+        <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>238.9027100790231</v>
+        <v>0</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>33.14232377680702</v>
       </c>
       <c r="Y9" t="n">
-        <v>26.83880912997671</v>
+        <v>190.5961130869169</v>
       </c>
     </row>
     <row r="10">
@@ -28023,7 +28023,7 @@
         <v>150.9558484244806</v>
       </c>
       <c r="G10" t="n">
-        <v>167.2305511458285</v>
+        <v>38.64046520703926</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -28032,7 +28032,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>59.456666199969</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28056,7 +28056,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>148.0265635717656</v>
       </c>
       <c r="S10" t="n">
         <v>211.5726649703493</v>
@@ -28065,7 +28065,7 @@
         <v>230.8471636524779</v>
       </c>
       <c r="U10" t="n">
-        <v>244.2981485487986</v>
+        <v>284.3183371157911</v>
       </c>
       <c r="V10" t="n">
         <v>258.1279513971616</v>
@@ -28087,28 +28087,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>88.59730400142189</v>
+        <v>88.59730400142192</v>
       </c>
       <c r="C11" t="n">
-        <v>88.59730400142189</v>
+        <v>88.59730400142192</v>
       </c>
       <c r="D11" t="n">
-        <v>88.59730400142189</v>
+        <v>88.59730400142192</v>
       </c>
       <c r="E11" t="n">
-        <v>88.59730400142189</v>
+        <v>88.59730400142192</v>
       </c>
       <c r="F11" t="n">
-        <v>88.59730400142189</v>
+        <v>88.59730400142192</v>
       </c>
       <c r="G11" t="n">
-        <v>88.59730400142189</v>
+        <v>88.59730400142192</v>
       </c>
       <c r="H11" t="n">
-        <v>88.59730400142189</v>
+        <v>88.59730400142192</v>
       </c>
       <c r="I11" t="n">
-        <v>88.59730400142189</v>
+        <v>88.59730400142192</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28138,25 +28138,25 @@
         <v>65.73916953180444</v>
       </c>
       <c r="S11" t="n">
-        <v>88.59730400142189</v>
+        <v>88.59730400142192</v>
       </c>
       <c r="T11" t="n">
-        <v>88.59730400142189</v>
+        <v>88.59730400142192</v>
       </c>
       <c r="U11" t="n">
-        <v>88.59730400142189</v>
+        <v>88.59730400142192</v>
       </c>
       <c r="V11" t="n">
-        <v>88.59730400142189</v>
+        <v>88.59730400142192</v>
       </c>
       <c r="W11" t="n">
-        <v>88.59730400142189</v>
+        <v>88.59730400142192</v>
       </c>
       <c r="X11" t="n">
-        <v>88.59730400142189</v>
+        <v>88.59730400142192</v>
       </c>
       <c r="Y11" t="n">
-        <v>88.59730400142189</v>
+        <v>88.59730400142192</v>
       </c>
     </row>
     <row r="12">
@@ -28175,7 +28175,7 @@
         <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>-6.252776074688882e-13</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
         <v>0</v>
@@ -28245,76 +28245,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>88.59730400142189</v>
+        <v>88.59730400142192</v>
       </c>
       <c r="C13" t="n">
-        <v>88.59730400142189</v>
+        <v>88.59730400142192</v>
       </c>
       <c r="D13" t="n">
-        <v>88.59730400142189</v>
+        <v>88.59730400142192</v>
       </c>
       <c r="E13" t="n">
-        <v>88.59730400142189</v>
+        <v>88.59730400142192</v>
       </c>
       <c r="F13" t="n">
-        <v>88.59730400142189</v>
+        <v>88.59730400142192</v>
       </c>
       <c r="G13" t="n">
-        <v>88.59730400142189</v>
+        <v>88.59730400142192</v>
       </c>
       <c r="H13" t="n">
-        <v>88.59730400142189</v>
+        <v>88.59730400142192</v>
       </c>
       <c r="I13" t="n">
-        <v>88.59730400142189</v>
+        <v>88.59730400142192</v>
       </c>
       <c r="J13" t="n">
-        <v>88.59730400142189</v>
+        <v>88.59730400142192</v>
       </c>
       <c r="K13" t="n">
-        <v>88.59730400142189</v>
+        <v>88.59730400142192</v>
       </c>
       <c r="L13" t="n">
-        <v>88.59730400142189</v>
+        <v>88.59730400142192</v>
       </c>
       <c r="M13" t="n">
-        <v>88.59730400142189</v>
+        <v>88.59730400142192</v>
       </c>
       <c r="N13" t="n">
-        <v>88.59730400142189</v>
+        <v>88.59730400142192</v>
       </c>
       <c r="O13" t="n">
-        <v>88.59730400142189</v>
+        <v>88.59730400142192</v>
       </c>
       <c r="P13" t="n">
-        <v>88.59730400142189</v>
+        <v>88.59730400142192</v>
       </c>
       <c r="Q13" t="n">
-        <v>88.59730400142189</v>
+        <v>88.59730400142192</v>
       </c>
       <c r="R13" t="n">
-        <v>88.59730400142189</v>
+        <v>88.59730400142192</v>
       </c>
       <c r="S13" t="n">
-        <v>88.59730400142189</v>
+        <v>88.59730400142192</v>
       </c>
       <c r="T13" t="n">
-        <v>88.59730400142189</v>
+        <v>88.59730400142192</v>
       </c>
       <c r="U13" t="n">
-        <v>88.59730400142189</v>
+        <v>88.59730400142192</v>
       </c>
       <c r="V13" t="n">
-        <v>88.59730400142189</v>
+        <v>88.59730400142192</v>
       </c>
       <c r="W13" t="n">
-        <v>88.59730400142189</v>
+        <v>88.59730400142192</v>
       </c>
       <c r="X13" t="n">
-        <v>88.59730400142189</v>
+        <v>88.59730400142192</v>
       </c>
       <c r="Y13" t="n">
-        <v>88.59730400142189</v>
+        <v>88.59730400142192</v>
       </c>
     </row>
     <row r="14">
@@ -28324,28 +28324,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>88.59730400142192</v>
+        <v>88.59730400142182</v>
       </c>
       <c r="C14" t="n">
-        <v>88.59730400142192</v>
+        <v>88.59730400142182</v>
       </c>
       <c r="D14" t="n">
-        <v>88.59730400142192</v>
+        <v>88.59730400142182</v>
       </c>
       <c r="E14" t="n">
-        <v>88.59730400142192</v>
+        <v>88.59730400142182</v>
       </c>
       <c r="F14" t="n">
-        <v>88.59730400142192</v>
+        <v>88.59730400142182</v>
       </c>
       <c r="G14" t="n">
-        <v>88.59730400142192</v>
+        <v>88.59730400142182</v>
       </c>
       <c r="H14" t="n">
-        <v>88.59730400142192</v>
+        <v>88.59730400142182</v>
       </c>
       <c r="I14" t="n">
-        <v>88.59730400142192</v>
+        <v>88.59730400142182</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28375,25 +28375,25 @@
         <v>65.73916953180444</v>
       </c>
       <c r="S14" t="n">
-        <v>88.59730400142192</v>
+        <v>88.59730400142182</v>
       </c>
       <c r="T14" t="n">
-        <v>88.59730400142192</v>
+        <v>88.59730400142182</v>
       </c>
       <c r="U14" t="n">
-        <v>88.59730400142192</v>
+        <v>88.59730400142182</v>
       </c>
       <c r="V14" t="n">
-        <v>88.59730400142192</v>
+        <v>88.59730400142182</v>
       </c>
       <c r="W14" t="n">
-        <v>88.59730400142192</v>
+        <v>88.59730400142182</v>
       </c>
       <c r="X14" t="n">
-        <v>88.59730400142192</v>
+        <v>88.59730400142182</v>
       </c>
       <c r="Y14" t="n">
-        <v>88.59730400142192</v>
+        <v>88.59730400142182</v>
       </c>
     </row>
     <row r="15">
@@ -28418,7 +28418,7 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>-6.252776074688882e-13</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -28482,76 +28482,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>88.59730400142192</v>
+        <v>88.59730400142182</v>
       </c>
       <c r="C16" t="n">
-        <v>88.59730400142192</v>
+        <v>88.59730400142182</v>
       </c>
       <c r="D16" t="n">
-        <v>88.59730400142192</v>
+        <v>88.59730400142182</v>
       </c>
       <c r="E16" t="n">
-        <v>88.59730400142192</v>
+        <v>88.59730400142182</v>
       </c>
       <c r="F16" t="n">
-        <v>88.59730400142192</v>
+        <v>88.59730400142182</v>
       </c>
       <c r="G16" t="n">
-        <v>88.59730400142192</v>
+        <v>88.59730400142182</v>
       </c>
       <c r="H16" t="n">
-        <v>88.59730400142192</v>
+        <v>88.59730400142182</v>
       </c>
       <c r="I16" t="n">
-        <v>88.59730400142192</v>
+        <v>88.59730400142182</v>
       </c>
       <c r="J16" t="n">
-        <v>88.59730400142192</v>
+        <v>88.59730400142182</v>
       </c>
       <c r="K16" t="n">
-        <v>88.59730400142192</v>
+        <v>88.59730400142182</v>
       </c>
       <c r="L16" t="n">
-        <v>88.59730400142192</v>
+        <v>88.59730400142182</v>
       </c>
       <c r="M16" t="n">
-        <v>88.59730400142192</v>
+        <v>88.59730400142182</v>
       </c>
       <c r="N16" t="n">
-        <v>88.59730400142192</v>
+        <v>88.59730400142182</v>
       </c>
       <c r="O16" t="n">
-        <v>88.59730400142192</v>
+        <v>88.59730400142182</v>
       </c>
       <c r="P16" t="n">
-        <v>88.59730400142192</v>
+        <v>88.59730400142182</v>
       </c>
       <c r="Q16" t="n">
-        <v>88.59730400142192</v>
+        <v>88.59730400142182</v>
       </c>
       <c r="R16" t="n">
-        <v>88.59730400142192</v>
+        <v>88.59730400142182</v>
       </c>
       <c r="S16" t="n">
-        <v>88.59730400142192</v>
+        <v>88.59730400142182</v>
       </c>
       <c r="T16" t="n">
-        <v>88.59730400142192</v>
+        <v>88.59730400142182</v>
       </c>
       <c r="U16" t="n">
-        <v>88.59730400142192</v>
+        <v>88.59730400142182</v>
       </c>
       <c r="V16" t="n">
-        <v>88.59730400142192</v>
+        <v>88.59730400142182</v>
       </c>
       <c r="W16" t="n">
-        <v>88.59730400142192</v>
+        <v>88.59730400142182</v>
       </c>
       <c r="X16" t="n">
-        <v>88.59730400142192</v>
+        <v>88.59730400142182</v>
       </c>
       <c r="Y16" t="n">
-        <v>88.59730400142192</v>
+        <v>88.59730400142182</v>
       </c>
     </row>
     <row r="17">
@@ -28694,7 +28694,7 @@
         <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>-5.400124791776761e-13</v>
+        <v>0</v>
       </c>
       <c r="U18" t="n">
         <v>0</v>
@@ -28731,10 +28731,10 @@
         <v>150.4889240962943</v>
       </c>
       <c r="F19" t="n">
-        <v>57.76913198068634</v>
+        <v>150.9558484244806</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5798044656034</v>
+        <v>72.39308802180906</v>
       </c>
       <c r="H19" t="n">
         <v>156.2556384040709</v>
@@ -28892,7 +28892,7 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>-6.252776074688882e-13</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -28934,7 +28934,7 @@
         <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>-4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -28956,7 +28956,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>72.39308802180905</v>
+        <v>165.5798044656034</v>
       </c>
       <c r="C22" t="n">
         <v>165.5798044656034</v>
@@ -29007,7 +29007,7 @@
         <v>140.32293915197</v>
       </c>
       <c r="S22" t="n">
-        <v>165.5798044656034</v>
+        <v>72.39308802180889</v>
       </c>
       <c r="T22" t="n">
         <v>165.5798044656034</v>
@@ -29044,7 +29044,7 @@
         <v>165.5798044656034</v>
       </c>
       <c r="E23" t="n">
-        <v>165.5798044656035</v>
+        <v>165.5798044656034</v>
       </c>
       <c r="F23" t="n">
         <v>165.5798044656034</v>
@@ -29117,7 +29117,7 @@
         <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>-5.400124791776761e-13</v>
+        <v>0</v>
       </c>
       <c r="D24" t="n">
         <v>0</v>
@@ -29202,7 +29202,7 @@
         <v>151.5411742405149</v>
       </c>
       <c r="E25" t="n">
-        <v>57.30220765250003</v>
+        <v>150.4889240962943</v>
       </c>
       <c r="F25" t="n">
         <v>150.9558484244806</v>
@@ -29247,7 +29247,7 @@
         <v>165.5798044656034</v>
       </c>
       <c r="T25" t="n">
-        <v>165.5798044656034</v>
+        <v>72.39308802180892</v>
       </c>
       <c r="U25" t="n">
         <v>165.5798044656034</v>
@@ -29272,76 +29272,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>106.5833818464879</v>
+        <v>106.5833818464878</v>
       </c>
       <c r="C26" t="n">
-        <v>106.5833818464879</v>
+        <v>106.5833818464878</v>
       </c>
       <c r="D26" t="n">
-        <v>106.5833818464879</v>
+        <v>106.5833818464878</v>
       </c>
       <c r="E26" t="n">
-        <v>106.5833818464879</v>
+        <v>106.5833818464878</v>
       </c>
       <c r="F26" t="n">
-        <v>106.5833818464879</v>
+        <v>106.5833818464878</v>
       </c>
       <c r="G26" t="n">
-        <v>106.5833818464879</v>
+        <v>106.5833818464878</v>
       </c>
       <c r="H26" t="n">
-        <v>106.5833818464879</v>
+        <v>106.5833818464878</v>
       </c>
       <c r="I26" t="n">
-        <v>106.5833818464879</v>
+        <v>106.5833818464878</v>
       </c>
       <c r="J26" t="n">
-        <v>106.5833818464879</v>
+        <v>106.5833818464878</v>
       </c>
       <c r="K26" t="n">
-        <v>106.5833818464879</v>
+        <v>106.5833818464878</v>
       </c>
       <c r="L26" t="n">
-        <v>106.5833818464879</v>
+        <v>106.5833818464878</v>
       </c>
       <c r="M26" t="n">
-        <v>106.5833818464879</v>
+        <v>106.5833818464878</v>
       </c>
       <c r="N26" t="n">
-        <v>106.5833818464879</v>
+        <v>106.5833818464878</v>
       </c>
       <c r="O26" t="n">
-        <v>106.5833818464879</v>
+        <v>106.5833818464878</v>
       </c>
       <c r="P26" t="n">
-        <v>106.5833818464879</v>
+        <v>106.5833818464878</v>
       </c>
       <c r="Q26" t="n">
-        <v>106.5833818464879</v>
+        <v>106.5833818464878</v>
       </c>
       <c r="R26" t="n">
-        <v>106.5833818464879</v>
+        <v>106.5833818464878</v>
       </c>
       <c r="S26" t="n">
-        <v>106.5833818464879</v>
+        <v>106.5833818464878</v>
       </c>
       <c r="T26" t="n">
-        <v>106.5833818464879</v>
+        <v>106.5833818464878</v>
       </c>
       <c r="U26" t="n">
-        <v>106.5833818464879</v>
+        <v>106.5833818464878</v>
       </c>
       <c r="V26" t="n">
-        <v>106.5833818464879</v>
+        <v>106.5833818464878</v>
       </c>
       <c r="W26" t="n">
-        <v>106.5833818464879</v>
+        <v>106.5833818464878</v>
       </c>
       <c r="X26" t="n">
-        <v>106.5833818464879</v>
+        <v>106.5833818464878</v>
       </c>
       <c r="Y26" t="n">
-        <v>106.5833818464879</v>
+        <v>106.5833818464878</v>
       </c>
     </row>
     <row r="27">
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>106.5833818464879</v>
+        <v>106.5833818464878</v>
       </c>
       <c r="C28" t="n">
-        <v>106.5833818464879</v>
+        <v>106.5833818464878</v>
       </c>
       <c r="D28" t="n">
-        <v>106.5833818464879</v>
+        <v>106.5833818464878</v>
       </c>
       <c r="E28" t="n">
-        <v>106.5833818464879</v>
+        <v>106.5833818464878</v>
       </c>
       <c r="F28" t="n">
-        <v>106.5833818464879</v>
+        <v>106.5833818464878</v>
       </c>
       <c r="G28" t="n">
-        <v>106.5833818464879</v>
+        <v>106.5833818464878</v>
       </c>
       <c r="H28" t="n">
-        <v>106.5833818464879</v>
+        <v>106.5833818464878</v>
       </c>
       <c r="I28" t="n">
-        <v>106.5833818464879</v>
+        <v>106.5833818464878</v>
       </c>
       <c r="J28" t="n">
-        <v>84.63111518229525</v>
+        <v>106.5833818464878</v>
       </c>
       <c r="K28" t="n">
-        <v>106.5833818464879</v>
+        <v>106.5833818464878</v>
       </c>
       <c r="L28" t="n">
-        <v>106.5833818464879</v>
+        <v>106.5833818464878</v>
       </c>
       <c r="M28" t="n">
-        <v>106.5833818464879</v>
+        <v>106.5833818464878</v>
       </c>
       <c r="N28" t="n">
-        <v>106.5833818464879</v>
+        <v>84.63111518229658</v>
       </c>
       <c r="O28" t="n">
-        <v>106.5833818464879</v>
+        <v>106.5833818464878</v>
       </c>
       <c r="P28" t="n">
-        <v>106.5833818464879</v>
+        <v>106.5833818464878</v>
       </c>
       <c r="Q28" t="n">
-        <v>106.5833818464879</v>
+        <v>106.5833818464878</v>
       </c>
       <c r="R28" t="n">
-        <v>106.5833818464879</v>
+        <v>106.5833818464878</v>
       </c>
       <c r="S28" t="n">
-        <v>106.5833818464879</v>
+        <v>106.5833818464878</v>
       </c>
       <c r="T28" t="n">
-        <v>106.5833818464879</v>
+        <v>106.5833818464878</v>
       </c>
       <c r="U28" t="n">
-        <v>106.5833818464879</v>
+        <v>106.5833818464878</v>
       </c>
       <c r="V28" t="n">
-        <v>106.5833818464879</v>
+        <v>106.5833818464878</v>
       </c>
       <c r="W28" t="n">
-        <v>106.5833818464879</v>
+        <v>106.5833818464878</v>
       </c>
       <c r="X28" t="n">
-        <v>106.5833818464879</v>
+        <v>106.5833818464878</v>
       </c>
       <c r="Y28" t="n">
-        <v>106.5833818464879</v>
+        <v>106.5833818464878</v>
       </c>
     </row>
     <row r="29">
@@ -29691,7 +29691,7 @@
         <v>106.5833818464879</v>
       </c>
       <c r="J31" t="n">
-        <v>106.5833818464879</v>
+        <v>84.63111518229439</v>
       </c>
       <c r="K31" t="n">
         <v>106.5833818464879</v>
@@ -29703,7 +29703,7 @@
         <v>106.5833818464879</v>
       </c>
       <c r="N31" t="n">
-        <v>84.63111518229519</v>
+        <v>106.5833818464879</v>
       </c>
       <c r="O31" t="n">
         <v>106.5833818464879</v>
@@ -29767,7 +29767,7 @@
         <v>165.5798044656034</v>
       </c>
       <c r="I32" t="n">
-        <v>156.3638580504329</v>
+        <v>156.363858050434</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -29904,7 +29904,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>72.39308802180857</v>
+        <v>165.5798044656034</v>
       </c>
       <c r="C34" t="n">
         <v>165.5798044656034</v>
@@ -29955,7 +29955,7 @@
         <v>140.32293915197</v>
       </c>
       <c r="S34" t="n">
-        <v>165.5798044656034</v>
+        <v>72.39308802180889</v>
       </c>
       <c r="T34" t="n">
         <v>165.5798044656034</v>
@@ -30195,7 +30195,7 @@
         <v>165.5798044656034</v>
       </c>
       <c r="T37" t="n">
-        <v>165.5798044656034</v>
+        <v>72.39308802180892</v>
       </c>
       <c r="U37" t="n">
         <v>165.5798044656034</v>
@@ -30210,7 +30210,7 @@
         <v>165.5798044656034</v>
       </c>
       <c r="Y37" t="n">
-        <v>72.39308802180858</v>
+        <v>165.5798044656034</v>
       </c>
     </row>
     <row r="38">
@@ -30347,7 +30347,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>-6.821210263296962e-13</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -30396,7 +30396,7 @@
         <v>165.5798044656034</v>
       </c>
       <c r="H40" t="n">
-        <v>63.06892196027609</v>
+        <v>156.2556384040709</v>
       </c>
       <c r="I40" t="n">
         <v>137.6086505120454</v>
@@ -30429,7 +30429,7 @@
         <v>140.32293915197</v>
       </c>
       <c r="S40" t="n">
-        <v>165.5798044656034</v>
+        <v>72.39308802180889</v>
       </c>
       <c r="T40" t="n">
         <v>165.5798044656034</v>
@@ -30660,7 +30660,7 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>0</v>
+        <v>23.80540818138466</v>
       </c>
       <c r="R43" t="n">
         <v>140.32293915197</v>
@@ -30672,13 +30672,13 @@
         <v>165.5798044656034</v>
       </c>
       <c r="U43" t="n">
-        <v>165.5798044656034</v>
+        <v>72.3930880218085</v>
       </c>
       <c r="V43" t="n">
         <v>165.5798044656034</v>
       </c>
       <c r="W43" t="n">
-        <v>96.19849620319357</v>
+        <v>165.5798044656034</v>
       </c>
       <c r="X43" t="n">
         <v>165.5798044656034</v>
@@ -30776,7 +30776,7 @@
         <v>0</v>
       </c>
       <c r="C45" t="n">
-        <v>-5.400124791776761e-13</v>
+        <v>0</v>
       </c>
       <c r="D45" t="n">
         <v>0</v>
@@ -30903,7 +30903,7 @@
         <v>140.32293915197</v>
       </c>
       <c r="S46" t="n">
-        <v>165.5798044656034</v>
+        <v>72.39308802180889</v>
       </c>
       <c r="T46" t="n">
         <v>165.5798044656034</v>
@@ -30912,7 +30912,7 @@
         <v>165.5798044656034</v>
       </c>
       <c r="V46" t="n">
-        <v>72.39308802180901</v>
+        <v>165.5798044656034</v>
       </c>
       <c r="W46" t="n">
         <v>165.5798044656034</v>
@@ -34699,25 +34699,25 @@
         <v>72.72580229576329</v>
       </c>
       <c r="K2" t="n">
-        <v>17.68646793392476</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>94.21910266041178</v>
+        <v>17.6864679339244</v>
       </c>
       <c r="N2" t="n">
-        <v>94.21910266041178</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>94.21910266041139</v>
       </c>
       <c r="P2" t="n">
-        <v>94.21910266041178</v>
+        <v>94.21910266041139</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>94.21910266041139</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34778,25 +34778,25 @@
         <v>60.86277427586479</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>94.21910266041139</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>29.54949595382325</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>94.21910266041178</v>
+        <v>29.54949595382289</v>
       </c>
       <c r="O3" t="n">
-        <v>94.21910266041178</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>94.21910266041178</v>
+        <v>94.21910266041139</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>94.21910266041139</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34860,19 +34860,19 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>94.21910266041178</v>
+        <v>26.80774121136669</v>
       </c>
       <c r="M4" t="n">
-        <v>90.41227022968806</v>
+        <v>94.21910266041139</v>
       </c>
       <c r="N4" t="n">
-        <v>94.21910266041178</v>
+        <v>94.21910266041139</v>
       </c>
       <c r="O4" t="n">
-        <v>94.21910266041178</v>
+        <v>94.21910266041139</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>63.604529018321</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -34933,28 +34933,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>72.72580229576329</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>94.21910266041139</v>
       </c>
       <c r="L5" t="n">
-        <v>90.41227022968806</v>
+        <v>94.21910266041139</v>
       </c>
       <c r="M5" t="n">
-        <v>94.21910266041178</v>
+        <v>0</v>
       </c>
       <c r="N5" t="n">
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>94.21910266041178</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>17.6864679339244</v>
       </c>
       <c r="Q5" t="n">
-        <v>94.21910266041178</v>
+        <v>94.21910266041139</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35012,28 +35012,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>60.86277427586479</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>94.21910266041139</v>
       </c>
       <c r="L6" t="n">
-        <v>94.21910266041178</v>
+        <v>29.54949595382289</v>
       </c>
       <c r="M6" t="n">
-        <v>94.21910266041178</v>
+        <v>94.21910266041139</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>90.41227022968806</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>94.21910266041178</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>94.21910266041139</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35094,22 +35094,22 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>33.9436239844883</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
-        <v>87.08321988729054</v>
+        <v>90.41227022968769</v>
       </c>
       <c r="M7" t="n">
-        <v>0</v>
+        <v>94.21910266041139</v>
       </c>
       <c r="N7" t="n">
-        <v>94.21910266041178</v>
+        <v>94.21910266041139</v>
       </c>
       <c r="O7" t="n">
-        <v>94.21910266041178</v>
+        <v>94.21910266041139</v>
       </c>
       <c r="P7" t="n">
-        <v>63.604529018321</v>
+        <v>0</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35170,28 +35170,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>72.72580229576329</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>319.8762849093196</v>
       </c>
       <c r="M8" t="n">
-        <v>319.8762849093204</v>
+        <v>319.8762849093196</v>
       </c>
       <c r="N8" t="n">
-        <v>319.8762849093204</v>
+        <v>318.7428366174204</v>
       </c>
       <c r="O8" t="n">
         <v>308.0854388614484</v>
       </c>
       <c r="P8" t="n">
-        <v>230.4615115717709</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>15.55552274988768</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35249,7 +35249,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>60.86277427586479</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -35258,19 +35258,19 @@
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>319.8762849093204</v>
+        <v>162.3155996593822</v>
       </c>
       <c r="N9" t="n">
-        <v>319.8762849093204</v>
+        <v>319.8762849093196</v>
       </c>
       <c r="O9" t="n">
-        <v>319.8762849093204</v>
+        <v>319.8762849093196</v>
       </c>
       <c r="P9" t="n">
-        <v>246.0892162936852</v>
+        <v>305.147393207775</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>159.3652826117113</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35489,10 +35489,10 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>17.42030366054508</v>
+        <v>264.8085946144125</v>
       </c>
       <c r="L12" t="n">
-        <v>413.8895281620462</v>
+        <v>166.5012372081783</v>
       </c>
       <c r="M12" t="n">
         <v>541.7133098798994</v>
@@ -35565,10 +35565,10 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>41.25367603694625</v>
+        <v>41.25367603694627</v>
       </c>
       <c r="K13" t="n">
-        <v>142.4463707851393</v>
+        <v>142.4463707851394</v>
       </c>
       <c r="L13" t="n">
         <v>215.6927301058562</v>
@@ -35580,13 +35580,13 @@
         <v>234.4340093185148</v>
       </c>
       <c r="O13" t="n">
-        <v>212.272263977624</v>
+        <v>212.2722639776241</v>
       </c>
       <c r="P13" t="n">
-        <v>172.9234301246681</v>
+        <v>172.9234301246682</v>
       </c>
       <c r="Q13" t="n">
-        <v>64.79189582003724</v>
+        <v>64.79189582003727</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35729,10 +35729,10 @@
         <v>264.8085946144125</v>
       </c>
       <c r="L15" t="n">
-        <v>86.33075059904719</v>
+        <v>413.8895281620462</v>
       </c>
       <c r="M15" t="n">
-        <v>541.7133098798994</v>
+        <v>214.1545323169003</v>
       </c>
       <c r="N15" t="n">
         <v>569.5810543320048</v>
@@ -35802,28 +35802,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>41.25367603694627</v>
+        <v>41.25367603694617</v>
       </c>
       <c r="K16" t="n">
-        <v>142.4463707851394</v>
+        <v>142.4463707851393</v>
       </c>
       <c r="L16" t="n">
-        <v>215.6927301058562</v>
+        <v>215.6927301058561</v>
       </c>
       <c r="M16" t="n">
-        <v>234.6394360413823</v>
+        <v>234.6394360413822</v>
       </c>
       <c r="N16" t="n">
-        <v>234.4340093185148</v>
+        <v>234.4340093185147</v>
       </c>
       <c r="O16" t="n">
-        <v>212.2722639776241</v>
+        <v>212.272263977624</v>
       </c>
       <c r="P16" t="n">
-        <v>172.9234301246682</v>
+        <v>172.923430124668</v>
       </c>
       <c r="Q16" t="n">
-        <v>64.79189582003727</v>
+        <v>64.79189582003715</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35972,10 +35972,10 @@
         <v>541.7133098798994</v>
       </c>
       <c r="N18" t="n">
-        <v>569.5810543320048</v>
+        <v>322.1927633781374</v>
       </c>
       <c r="O18" t="n">
-        <v>197.3961560918974</v>
+        <v>444.7844470457648</v>
       </c>
       <c r="P18" t="n">
         <v>344.1715415558448</v>
@@ -36206,10 +36206,10 @@
         <v>413.8895281620462</v>
       </c>
       <c r="M21" t="n">
-        <v>541.7133098798994</v>
+        <v>214.1545323169003</v>
       </c>
       <c r="N21" t="n">
-        <v>242.0222767690058</v>
+        <v>569.5810543320048</v>
       </c>
       <c r="O21" t="n">
         <v>444.7844470457648</v>
@@ -36434,10 +36434,10 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>80.17048660913161</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>264.8085946144125</v>
+        <v>17.42030366054508</v>
       </c>
       <c r="L24" t="n">
         <v>413.8895281620462</v>
@@ -36446,7 +36446,7 @@
         <v>541.7133098798994</v>
       </c>
       <c r="N24" t="n">
-        <v>242.0222767690058</v>
+        <v>569.5810543320048</v>
       </c>
       <c r="O24" t="n">
         <v>444.7844470457648</v>
@@ -36601,22 +36601,22 @@
         <v>518.2574925965368</v>
       </c>
       <c r="M26" t="n">
-        <v>570.8619272871388</v>
+        <v>570.8619272871387</v>
       </c>
       <c r="N26" t="n">
-        <v>556.8887542939386</v>
+        <v>556.8887542939385</v>
       </c>
       <c r="O26" t="n">
         <v>479.0232796070503</v>
       </c>
       <c r="P26" t="n">
-        <v>391.9699351956251</v>
+        <v>391.969935195625</v>
       </c>
       <c r="Q26" t="n">
         <v>243.2159156466856</v>
       </c>
       <c r="R26" t="n">
-        <v>40.84421231468346</v>
+        <v>40.8442123146834</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36683,16 +36683,16 @@
         <v>541.7133098798994</v>
       </c>
       <c r="N27" t="n">
-        <v>242.0222767690054</v>
+        <v>569.5810543320048</v>
       </c>
       <c r="O27" t="n">
         <v>444.7844470457648</v>
       </c>
       <c r="P27" t="n">
-        <v>344.1715415558448</v>
+        <v>202.0646563138272</v>
       </c>
       <c r="Q27" t="n">
-        <v>185.4518923209819</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36750,7 +36750,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>37.2874872178196</v>
+        <v>59.2397538820122</v>
       </c>
       <c r="K28" t="n">
         <v>160.4324486302053</v>
@@ -36759,19 +36759,19 @@
         <v>233.6788079509222</v>
       </c>
       <c r="M28" t="n">
-        <v>252.6255138864483</v>
+        <v>252.6255138864482</v>
       </c>
       <c r="N28" t="n">
-        <v>252.4200871635808</v>
+        <v>230.4678204993895</v>
       </c>
       <c r="O28" t="n">
-        <v>230.2583418226901</v>
+        <v>230.25834182269</v>
       </c>
       <c r="P28" t="n">
         <v>190.9095079697341</v>
       </c>
       <c r="Q28" t="n">
-        <v>82.77797366510325</v>
+        <v>82.77797366510319</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36829,13 +36829,13 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>211.7268040485575</v>
+        <v>211.7268040485576</v>
       </c>
       <c r="K29" t="n">
         <v>397.7350230534574</v>
       </c>
       <c r="L29" t="n">
-        <v>518.2574925965368</v>
+        <v>518.257492596537</v>
       </c>
       <c r="M29" t="n">
         <v>570.8619272871388</v>
@@ -36850,10 +36850,10 @@
         <v>391.9699351956251</v>
       </c>
       <c r="Q29" t="n">
-        <v>243.2159156466856</v>
+        <v>243.2159156466857</v>
       </c>
       <c r="R29" t="n">
-        <v>40.84421231468346</v>
+        <v>40.84421231468349</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36987,10 +36987,10 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>59.23975388201225</v>
+        <v>37.28748721781875</v>
       </c>
       <c r="K31" t="n">
-        <v>160.4324486302053</v>
+        <v>160.4324486302054</v>
       </c>
       <c r="L31" t="n">
         <v>233.6788079509222</v>
@@ -36999,16 +36999,16 @@
         <v>252.6255138864483</v>
       </c>
       <c r="N31" t="n">
-        <v>230.4678204993881</v>
+        <v>252.4200871635808</v>
       </c>
       <c r="O31" t="n">
         <v>230.2583418226901</v>
       </c>
       <c r="P31" t="n">
-        <v>190.9095079697341</v>
+        <v>190.9095079697342</v>
       </c>
       <c r="Q31" t="n">
-        <v>82.77797366510325</v>
+        <v>82.77797366510327</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37157,7 +37157,7 @@
         <v>541.7133098798994</v>
       </c>
       <c r="N33" t="n">
-        <v>242.0222767690054</v>
+        <v>427.4741690899875</v>
       </c>
       <c r="O33" t="n">
         <v>444.7844470457648</v>
@@ -37166,7 +37166,7 @@
         <v>344.1715415558448</v>
       </c>
       <c r="Q33" t="n">
-        <v>185.4518923209819</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37391,10 +37391,10 @@
         <v>413.8895281620462</v>
       </c>
       <c r="M36" t="n">
-        <v>541.7133098798994</v>
+        <v>214.1545323169003</v>
       </c>
       <c r="N36" t="n">
-        <v>242.0222767690054</v>
+        <v>569.5810543320048</v>
       </c>
       <c r="O36" t="n">
         <v>444.7844470457648</v>
@@ -37619,7 +37619,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>80.17048660913161</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>264.8085946144125</v>
@@ -37628,10 +37628,10 @@
         <v>413.8895281620462</v>
       </c>
       <c r="M39" t="n">
-        <v>541.7133098798994</v>
+        <v>294.3250189260319</v>
       </c>
       <c r="N39" t="n">
-        <v>242.0222767690063</v>
+        <v>569.5810543320048</v>
       </c>
       <c r="O39" t="n">
         <v>444.7844470457648</v>
@@ -37868,7 +37868,7 @@
         <v>541.7133098798994</v>
       </c>
       <c r="N42" t="n">
-        <v>242.0222767690058</v>
+        <v>242.0222767690054</v>
       </c>
       <c r="O42" t="n">
         <v>444.7844470457648</v>
@@ -38105,16 +38105,16 @@
         <v>541.7133098798994</v>
       </c>
       <c r="N45" t="n">
-        <v>242.0222767690058</v>
+        <v>569.5810543320048</v>
       </c>
       <c r="O45" t="n">
         <v>444.7844470457648</v>
       </c>
       <c r="P45" t="n">
-        <v>344.1715415558448</v>
+        <v>202.0646563138277</v>
       </c>
       <c r="Q45" t="n">
-        <v>185.4518923209819</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
